--- a/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇処理!$A$1:$I$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -290,6 +290,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,10 +349,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>929640</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1054"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1064"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -382,7 +382,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6103620" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -432,8 +432,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="68580" y="1584960"/>
-          <a:ext cx="5906324" cy="6487430"/>
+          <a:off x="68580" y="1625688"/>
+          <a:ext cx="5895551" cy="6716030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,16 +746,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -772,7 +772,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -783,264 +783,294 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1048,36 +1078,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,19 +1089,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
@@ -5,21 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="10485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
     <sheet name="〇〇処理" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇処理!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇処理!$A$1:$K$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -290,6 +290,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -298,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,10 +349,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>211455</xdr:rowOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>929640</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1064"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1071"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -382,7 +382,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="676275"/>
+              <a:ext cx="6103620" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -404,42 +404,2369 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>800924</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>71390</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="68580" y="1625688"/>
-          <a:ext cx="5895551" cy="6716030"/>
+          <a:off x="1584960" y="2506980"/>
+          <a:ext cx="883920" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798320" y="1653540"/>
+          <a:ext cx="457200" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="4"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2026920" y="2057400"/>
+          <a:ext cx="0" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302045</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3438277" y="3313324"/>
+          <a:ext cx="756734" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2042160" y="2804160"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302045</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2339340" y="3458104"/>
+          <a:ext cx="1102145" cy="1376"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>478877</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>69574</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>64225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1578807" y="4217977"/>
+          <a:ext cx="942419" cy="252596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トップ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266369</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>51352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266369</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2049449" y="3708952"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="ひし形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="3238500"/>
+          <a:ext cx="586740" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281609</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>58972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281609</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>20872</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2064689" y="4402372"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4356</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>42041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>567560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="ひし形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1785859" y="4897820"/>
+          <a:ext cx="563204" cy="478558"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320772</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>148333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>470742</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>211920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3458110" y="5004112"/>
+          <a:ext cx="1505804" cy="294815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>閲覧する年月日選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>567560</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320772</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64513</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349063" y="5137099"/>
+          <a:ext cx="1109047" cy="14421"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395757</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>211920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399727</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>96443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="2"/>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4199131" y="5314007"/>
+          <a:ext cx="3970" cy="348349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>644196</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>96443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155257</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771709" y="5662356"/>
+          <a:ext cx="862783" cy="293558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>勤怠一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>580587</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>156517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685487" y="6557317"/>
+          <a:ext cx="867213" cy="249283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>勤怠申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285958</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>289229</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104692</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2078899" y="5419038"/>
+          <a:ext cx="3271" cy="512713"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304469</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>150412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304469</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112312</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2087549" y="6094012"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>351987</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>154340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1456887" y="5848657"/>
+          <a:ext cx="1370133" cy="249283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請する年日選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319709</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>319709</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142792</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2102789" y="6810292"/>
+          <a:ext cx="0" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>194898</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>501749</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="621618" y="7295871"/>
+          <a:ext cx="3019571" cy="329991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>勤怠ステータスと勤怠時間、休憩時間を入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348324</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>357530</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57457</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="50" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2131404" y="7625862"/>
+          <a:ext cx="9206" cy="889795"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99183</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>615876</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1882263" y="8515657"/>
+          <a:ext cx="516693" cy="331163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>70047</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1853127" y="9475777"/>
+          <a:ext cx="570033" cy="331163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40563</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>77682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>648113</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>72238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="ひし形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1823643" y="10593282"/>
+          <a:ext cx="607550" cy="451756"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>344338</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355064</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>77682</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="2"/>
+          <a:endCxn id="63" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2127418" y="9806940"/>
+          <a:ext cx="10726" cy="786342"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>634361</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51239</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>156733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="テキスト ボックス 67"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1739261" y="11712770"/>
+          <a:ext cx="773238" cy="331163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請完了</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>72238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>344338</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>54170</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2125880" y="11045038"/>
+          <a:ext cx="1538" cy="667732"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>156733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>347590</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>58561</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2125880" y="12043933"/>
+          <a:ext cx="4790" cy="359028"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>58561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>573259</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>11668</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="81" name="グループ化 80"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1905001" y="12402961"/>
+          <a:ext cx="451338" cy="410307"/>
+          <a:chOff x="3206262" y="9999785"/>
+          <a:chExt cx="451338" cy="410307"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="楕円 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3206262" y="9999785"/>
+            <a:ext cx="451338" cy="410307"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="楕円 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3276601" y="10058400"/>
+            <a:ext cx="304800" cy="287215"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>40159</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>648113</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>74960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="カギ線コネクタ 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="3"/>
+          <a:endCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2423160" y="9641359"/>
+          <a:ext cx="8033" cy="1177801"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2845761"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179517</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>630855</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106343</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="103" name="グループ化 102"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3997137" y="6325436"/>
+          <a:ext cx="451338" cy="410307"/>
+          <a:chOff x="3206262" y="9999785"/>
+          <a:chExt cx="451338" cy="410307"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="楕円 103"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3206262" y="9999785"/>
+            <a:ext cx="451338" cy="410307"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="楕円 104"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3276601" y="10058400"/>
+            <a:ext cx="304800" cy="287215"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>399727</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>158088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>405186</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>153236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="41" idx="2"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4209727" y="5919551"/>
+          <a:ext cx="5459" cy="456065"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>458640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>201067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234117</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154174</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="110" name="グループ化 109"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3598080" y="4087267"/>
+          <a:ext cx="453657" cy="410307"/>
+          <a:chOff x="3206262" y="9999785"/>
+          <a:chExt cx="451338" cy="410307"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="楕円 110"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3206262" y="9999785"/>
+            <a:ext cx="451338" cy="410307"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="楕円 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3276601" y="10058400"/>
+            <a:ext cx="304800" cy="287215"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3385</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>173884</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>8241</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>201067</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="111" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3813385" y="3602884"/>
+          <a:ext cx="4856" cy="484383"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>358780</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>70318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466164</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="テキスト ボックス 122"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2820040" y="9671518"/>
+          <a:ext cx="2820104" cy="1601599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>勤怠ステータスが「出勤」かつ勤務時間と休憩時間がデフォルトである場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>もしくは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>勤怠ステータスが「休日」かつ勤務時間と休憩時間が入力されていた場合</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>168930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>394446</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="テキスト ボックス 124"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="448236" y="11356883"/>
+          <a:ext cx="1739151" cy="575141"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請する月の日数分正しく入力されていた場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355064</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>357530</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="58" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2138144" y="8846820"/>
+          <a:ext cx="2466" cy="628957"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -730,7 +3057,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -746,16 +3099,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -772,7 +3125,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -783,294 +3136,264 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1078,6 +3401,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,19 +3442,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="8" width="8.8984375" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
@@ -16,7 +16,7 @@
     <sheet name="〇〇処理" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇処理!$A$1:$K$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇処理!$A$1:$S$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -350,9 +350,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>929640</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:colOff>904091</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>221540</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1071"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1080"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -407,15 +407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:colOff>407506</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190832</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -424,8 +424,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1584960" y="2506980"/>
-          <a:ext cx="883920" cy="289560"/>
+          <a:off x="1512406" y="3330272"/>
+          <a:ext cx="1070774" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -459,7 +459,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン</a:t>
+            <a:t>ログインする</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -537,22 +537,21 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>251460</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="4"/>
-          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2026920" y="2057400"/>
-          <a:ext cx="0" cy="449580"/>
+          <a:ext cx="7620" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -581,15 +580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>302045</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>112924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>173884</xdr:rowOff>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117711</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -598,8 +597,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3438277" y="3313324"/>
-          <a:ext cx="756734" cy="289560"/>
+          <a:off x="3314700" y="2571351"/>
+          <a:ext cx="1790699" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -633,7 +632,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>新規登録</a:t>
+            <a:t>ユーザー情報を入力する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -642,26 +641,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>201531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304045</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205461</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="70" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2042160" y="2804160"/>
-          <a:ext cx="0" cy="419100"/>
+          <a:off x="5105399" y="2716131"/>
+          <a:ext cx="372626" cy="3930"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -691,27 +693,26 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>29104</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>194442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>302045</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>105103</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205741</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2339340" y="3458104"/>
-          <a:ext cx="1102145" cy="1376"/>
+          <a:off x="2337763" y="2737945"/>
+          <a:ext cx="904678" cy="11299"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -740,15 +741,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>478877</xdr:colOff>
+      <xdr:colOff>147573</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:rowOff>156516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>69574</xdr:colOff>
+      <xdr:colOff>390940</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>64225</xdr:rowOff>
+      <xdr:rowOff>177199</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -757,8 +758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1578807" y="4217977"/>
-          <a:ext cx="942419" cy="252596"/>
+          <a:off x="1247503" y="4330951"/>
+          <a:ext cx="1595089" cy="252596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,7 +793,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>トップ画面</a:t>
+            <a:t>申請か閲覧を選択する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -802,25 +803,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266369</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>51352</xdr:rowOff>
+      <xdr:colOff>264713</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266369</xdr:colOff>
+      <xdr:colOff>269257</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>13252</xdr:rowOff>
+      <xdr:rowOff>156516</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2049449" y="3708952"/>
-          <a:ext cx="0" cy="419100"/>
+          <a:off x="2040504" y="3669528"/>
+          <a:ext cx="4544" cy="661423"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -850,14 +854,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -866,7 +870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="3238500"/>
+          <a:off x="1752600" y="2499360"/>
           <a:ext cx="586740" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -908,9 +912,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>281609</xdr:colOff>
+      <xdr:colOff>269257</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>58972</xdr:rowOff>
+      <xdr:rowOff>177199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -921,12 +925,14 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2064689" y="4402372"/>
-          <a:ext cx="0" cy="419100"/>
+          <a:off x="2045048" y="4583547"/>
+          <a:ext cx="12352" cy="307499"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -972,8 +978,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1785859" y="4897820"/>
-          <a:ext cx="563204" cy="478558"/>
+          <a:off x="1780147" y="4912215"/>
+          <a:ext cx="563204" cy="479929"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1013,16 +1019,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>320772</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>506302</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>148333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>470742</xdr:colOff>
+      <xdr:rowOff>121829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>211920</xdr:rowOff>
+      <xdr:rowOff>185416</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1031,8 +1037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3458110" y="5004112"/>
-          <a:ext cx="1505804" cy="294815"/>
+          <a:off x="5002102" y="4922429"/>
+          <a:ext cx="1749218" cy="292187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,7 +1072,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>閲覧する年月日選択</a:t>
+            <a:t>閲覧する年月を選択する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1078,13 +1084,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>567560</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>50092</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>320772</xdr:colOff>
+      <xdr:rowOff>39323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>506302</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>64513</xdr:rowOff>
+      <xdr:rowOff>50093</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1095,9 +1101,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2349063" y="5137099"/>
-          <a:ext cx="1109047" cy="14421"/>
+        <a:xfrm flipV="1">
+          <a:off x="2350640" y="5068523"/>
+          <a:ext cx="2651462" cy="10770"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1125,16 +1131,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>395757</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>699370</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>211920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>399727</xdr:colOff>
+      <xdr:rowOff>185416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>705455</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>96443</xdr:rowOff>
+      <xdr:rowOff>123110</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1146,8 +1152,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4199131" y="5314007"/>
-          <a:ext cx="3970" cy="348349"/>
+          <a:off x="5898899" y="5313228"/>
+          <a:ext cx="6085" cy="403858"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1175,16 +1181,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>644196</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120753</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>96443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>155257</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>158088</xdr:rowOff>
+      <xdr:rowOff>123110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357826</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12609</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1193,8 +1199,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3771709" y="5662356"/>
-          <a:ext cx="862783" cy="293558"/>
+          <a:off x="4638965" y="5717086"/>
+          <a:ext cx="2532037" cy="355664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,8 +1233,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勤怠一覧</a:t>
+            <a:t>より検索して勤怠情報を表示する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1238,15 +1248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>580587</xdr:colOff>
+      <xdr:colOff>408308</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>156517</xdr:rowOff>
+      <xdr:rowOff>136639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>177200</xdr:rowOff>
+      <xdr:rowOff>157322</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1255,8 +1265,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1685487" y="6557317"/>
-          <a:ext cx="867213" cy="249283"/>
+          <a:off x="1513208" y="6537439"/>
+          <a:ext cx="1588132" cy="249283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1290,7 +1300,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勤怠申請</a:t>
+            <a:t>勤怠申請が作成される</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1319,8 +1329,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2078899" y="5419038"/>
-          <a:ext cx="3271" cy="512713"/>
+          <a:off x="2061749" y="5392144"/>
+          <a:ext cx="3271" cy="510374"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1401,8 +1411,8 @@
       <xdr:rowOff>133657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>154340</xdr:rowOff>
     </xdr:to>
@@ -1414,7 +1424,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1456887" y="5848657"/>
-          <a:ext cx="1370133" cy="249283"/>
+          <a:ext cx="1682553" cy="249283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1448,7 +1458,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>申請する年日選択</a:t>
+            <a:t>申請する年日選択する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1458,25 +1468,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>319709</xdr:colOff>
+      <xdr:colOff>521910</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>180892</xdr:rowOff>
+      <xdr:rowOff>157322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>319709</xdr:colOff>
+      <xdr:colOff>524195</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>142792</xdr:rowOff>
+      <xdr:rowOff>115727</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="直線矢印コネクタ 45"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2102789" y="6810292"/>
-          <a:ext cx="0" cy="419100"/>
+        <a:xfrm flipH="1">
+          <a:off x="2314851" y="6916710"/>
+          <a:ext cx="2285" cy="424570"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1504,16 +1517,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>194898</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>143449</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>209271</xdr:rowOff>
+      <xdr:rowOff>115727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>501749</xdr:colOff>
+      <xdr:colOff>219052</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
+      <xdr:rowOff>225678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1522,8 +1535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="621618" y="7295871"/>
-          <a:ext cx="3019571" cy="329991"/>
+          <a:off x="1255073" y="7341280"/>
+          <a:ext cx="2119555" cy="576116"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,7 +1570,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勤怠ステータスと勤怠時間、休憩時間を入力</a:t>
+            <a:t>勤怠ステータスと勤怠時間、休憩時間を入力して更新する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1567,75 +1580,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>348324</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>82062</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>357530</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57457</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="直線矢印コネクタ 48"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="2"/>
-          <a:endCxn id="50" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2131404" y="7625862"/>
-          <a:ext cx="9206" cy="889795"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>99183</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>615876</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>150222</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228561</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>166082</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1882263" y="8515657"/>
-          <a:ext cx="516693" cy="331163"/>
+          <a:off x="1926013" y="9334389"/>
+          <a:ext cx="754200" cy="340128"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,7 +1632,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>更新</a:t>
+            <a:t>申請する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1679,77 +1642,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>70047</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>103177</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1853127" y="9475777"/>
-          <a:ext cx="570033" cy="331163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>申請</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>40563</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>77682</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>648113</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>72238</xdr:rowOff>
+      <xdr:colOff>237358</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>93253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>169047</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1758,8 +1659,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1823643" y="10593282"/>
-          <a:ext cx="607550" cy="451756"/>
+          <a:off x="2013149" y="10065514"/>
+          <a:ext cx="607550" cy="458382"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1800,15 +1701,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>344338</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
+      <xdr:colOff>527322</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>166082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>355064</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>77682</xdr:rowOff>
+      <xdr:colOff>541133</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>93253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1819,9 +1720,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2127418" y="9806940"/>
-          <a:ext cx="10726" cy="786342"/>
+        <a:xfrm>
+          <a:off x="2303113" y="9674517"/>
+          <a:ext cx="13811" cy="390997"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1850,15 +1751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>634361</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>54170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>51239</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>156733</xdr:rowOff>
+      <xdr:colOff>256343</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>79348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>129872</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>178598</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1867,8 +1768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1739261" y="11712770"/>
-          <a:ext cx="773238" cy="331163"/>
+          <a:off x="1356273" y="11211174"/>
+          <a:ext cx="1901112" cy="331163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1902,7 +1803,15 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>申請完了</a:t>
+            <a:t>申請データを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に保存する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1912,15 +1821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342800</xdr:colOff>
+      <xdr:colOff>531038</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541133</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>72238</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>344338</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>54170</xdr:rowOff>
+      <xdr:rowOff>79348</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1932,8 +1841,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2125880" y="11045038"/>
-          <a:ext cx="1538" cy="667732"/>
+          <a:off x="2306829" y="10523896"/>
+          <a:ext cx="10095" cy="687278"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1962,28 +1871,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>342800</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>156733</xdr:rowOff>
+      <xdr:colOff>523793</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>178598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>347590</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>58561</xdr:rowOff>
+      <xdr:colOff>531038</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>189506</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="68" idx="2"/>
-          <a:endCxn id="79" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2125880" y="12043933"/>
-          <a:ext cx="4790" cy="359028"/>
+        <a:xfrm flipH="1">
+          <a:off x="2299584" y="11542337"/>
+          <a:ext cx="7245" cy="474734"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2011,199 +1919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>121921</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>58561</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>573259</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>11668</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="81" name="グループ化 80"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1905001" y="12402961"/>
-          <a:ext cx="451338" cy="410307"/>
-          <a:chOff x="3206262" y="9999785"/>
-          <a:chExt cx="451338" cy="410307"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="79" name="楕円 78"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3206262" y="9999785"/>
-            <a:ext cx="451338" cy="410307"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="楕円 79"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3276601" y="10058400"/>
-            <a:ext cx="304800" cy="287215"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>40159</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>648113</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>74960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="89" name="カギ線コネクタ 88"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="3"/>
-          <a:endCxn id="58" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2423160" y="9641359"/>
-          <a:ext cx="8033" cy="1177801"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2845761"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>179517</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>153236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>630855</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>106343</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485231</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>932984</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32364</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2212,8 +1937,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3997137" y="6325436"/>
-          <a:ext cx="451338" cy="410307"/>
+          <a:off x="5684760" y="6605564"/>
+          <a:ext cx="447753" cy="419271"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -2325,16 +2050,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>399727</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>158088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>405186</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>153236</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>705455</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>709108</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79258</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2346,8 +2071,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4209727" y="5919551"/>
-          <a:ext cx="5459" cy="456065"/>
+          <a:off x="5904984" y="6072750"/>
+          <a:ext cx="3653" cy="532814"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2375,16 +2100,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>458640</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113961</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>564705</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>201067</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>234117</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>154174</xdr:rowOff>
+      <xdr:rowOff>199953</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2393,8 +2118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3598080" y="4087267"/>
-          <a:ext cx="453657" cy="410307"/>
+          <a:off x="8271843" y="3747564"/>
+          <a:ext cx="450744" cy="414789"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -2506,66 +2231,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>3385</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>173884</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>8241</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>201067</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="直線矢印コネクタ 112"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="2"/>
-          <a:endCxn id="111" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3813385" y="3602884"/>
-          <a:ext cx="4856" cy="484383"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>358780</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>70318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466164</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>75290</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>594872</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>92826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2574,8 +2249,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2820040" y="9671518"/>
-          <a:ext cx="2820104" cy="1601599"/>
+          <a:off x="4593502" y="9181639"/>
+          <a:ext cx="2814546" cy="1632975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2663,16 +2338,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>17930</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>648480</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>147396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346816</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>168930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>394446</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>26603</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2681,8 +2356,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="448236" y="11356883"/>
-          <a:ext cx="1739151" cy="575141"/>
+          <a:off x="2441421" y="10636102"/>
+          <a:ext cx="1742289" cy="578454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2721,29 +2396,832 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>355064</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>357530</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>103177</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63060</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>68315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15764</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2522481" y="2380591"/>
+          <a:ext cx="630621" cy="315311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304045</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173604</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121983</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5478025" y="2574938"/>
+          <a:ext cx="1484999" cy="290245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザーを登録する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647740</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>664540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>118260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="テキスト ボックス 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7460916" y="2623833"/>
+          <a:ext cx="2033859" cy="291415"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー情報を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に登録する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173604</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>205635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647740</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>207702</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="132" name="直線矢印コネクタ 131"/>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
+          <a:stCxn id="70" idx="3"/>
+          <a:endCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6986780" y="2769541"/>
+          <a:ext cx="474136" cy="2067"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319964</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>118260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>339333</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18246</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="111" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477846" y="2915248"/>
+          <a:ext cx="19369" cy="832316"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>264713</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129872</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2045970" y="2941320"/>
+          <a:ext cx="1823" cy="388952"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>215848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>46724</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="テキスト ボックス 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1013460" y="2959048"/>
+          <a:ext cx="816344" cy="309371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録済み</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>594288</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114630</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>32900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3045940" y="4818990"/>
+          <a:ext cx="872064" cy="315997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>閲覧する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>349124</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>74712</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="テキスト ボックス 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2132204" y="5332512"/>
+          <a:ext cx="862455" cy="312684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>240034</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111864</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="テキスト ボックス 114"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1351658" y="8166660"/>
+          <a:ext cx="1915782" cy="253765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新データを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に保存する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>516608</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>225678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>521910</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8778</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 142"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="115" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2309549" y="7917396"/>
+          <a:ext cx="5302" cy="249264"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>516608</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>532436</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>89324</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="直線矢印コネクタ 181"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="2"/>
+          <a:endCxn id="192" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2309549" y="8420425"/>
+          <a:ext cx="15828" cy="292946"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>299767</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>89324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83787</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="ひし形 191"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2092708" y="8713371"/>
+          <a:ext cx="465338" cy="309981"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83787</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219052</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="221" name="カギ線コネクタ 220"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="192" idx="3"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2558046" y="7629338"/>
+          <a:ext cx="816582" cy="1239024"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 234485"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>527322</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>529708</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57867</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="233" name="直線矢印コネクタ 232"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="192" idx="2"/>
           <a:endCxn id="58" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2138144" y="8846820"/>
-          <a:ext cx="2466" cy="628957"/>
+          <a:off x="2303113" y="8978919"/>
+          <a:ext cx="2386" cy="355470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2767,6 +3245,699 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603710</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>229071</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>97157</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="カギ線コネクタ 244"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2396651" y="9199070"/>
+          <a:ext cx="306679" cy="1153711"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -605880"/>
+            <a:gd name="adj2" fmla="val 99879"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>293055</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>199716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68532</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>151654</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="265" name="グループ化 264"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2085996" y="12319998"/>
+          <a:ext cx="456795" cy="418103"/>
+          <a:chOff x="3206262" y="9999785"/>
+          <a:chExt cx="451338" cy="410307"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="266" name="楕円 265"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3206262" y="9999785"/>
+            <a:ext cx="451338" cy="410307"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="267" name="楕円 266"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3276601" y="10058400"/>
+            <a:ext cx="304800" cy="287215"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>354166</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>206072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="285" name="テキスト ボックス 284"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3493606" y="3345512"/>
+          <a:ext cx="1649894" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>でログイン認証する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>301646</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44396</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="291" name="直線矢印コネクタ 290"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2573572" y="3519162"/>
+          <a:ext cx="855587" cy="3930"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>299168</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200108</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>122914</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="292" name="直線矢印コネクタ 291"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="293" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2074959" y="4050196"/>
+          <a:ext cx="1928523" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200108</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108668</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="ひし形 292"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4003482" y="3825903"/>
+          <a:ext cx="584421" cy="448586"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>492319</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>206072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>500933</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>115294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="298" name="直線矢印コネクタ 297"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="285" idx="2"/>
+          <a:endCxn id="293" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4295693" y="3684768"/>
+          <a:ext cx="8614" cy="141135"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>119978</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="308" name="カギ線コネクタ 307"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2103120" y="3108960"/>
+          <a:ext cx="2512658" cy="921970"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -49471"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>701300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>525779</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="テキスト ボックス 312"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5875280" y="3470251"/>
+          <a:ext cx="769359" cy="312684"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>認証</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289158</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20379</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380337</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="314" name="テキスト ボックス 313"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2740810" y="3730988"/>
+          <a:ext cx="767040" cy="319310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>認証</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647791</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>637391</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="テキスト ボックス 314"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4484685" y="8084806"/>
+          <a:ext cx="2293530" cy="317166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力したデータを変更する場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3442,8 +4613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3462,7 +4633,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1080"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1085"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -407,13 +407,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>407506</xdr:colOff>
+      <xdr:colOff>676447</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>129872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>390861</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>190832</xdr:rowOff>
     </xdr:to>
@@ -424,8 +424,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1512406" y="3330272"/>
-          <a:ext cx="1070774" cy="289560"/>
+          <a:off x="1788071" y="3393025"/>
+          <a:ext cx="1077049" cy="294042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -469,13 +469,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>284182</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60064</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -486,8 +486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1798320" y="1653540"/>
-          <a:ext cx="457200" cy="403860"/>
+          <a:off x="2077123" y="1684916"/>
+          <a:ext cx="457200" cy="412825"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -531,27 +531,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>512782</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>521298</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>222324</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="4"/>
+          <a:endCxn id="27" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2026920" y="2057400"/>
-          <a:ext cx="7620" cy="411480"/>
+          <a:off x="2305723" y="2097741"/>
+          <a:ext cx="8516" cy="455407"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -644,13 +645,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>201531</xdr:rowOff>
+      <xdr:rowOff>198737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304045</xdr:colOff>
+      <xdr:colOff>465410</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205461</xdr:rowOff>
+      <xdr:rowOff>203772</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -661,9 +662,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5105399" y="2716131"/>
-          <a:ext cx="372626" cy="3930"/>
+        <a:xfrm flipV="1">
+          <a:off x="5127811" y="2762643"/>
+          <a:ext cx="537128" cy="5035"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -691,28 +692,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134918</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>194442</xdr:rowOff>
+      <xdr:rowOff>203772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>105103</xdr:colOff>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205741</xdr:rowOff>
+      <xdr:rowOff>214704</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2337763" y="2737945"/>
-          <a:ext cx="904678" cy="11299"/>
+          <a:off x="2609177" y="2767678"/>
+          <a:ext cx="721659" cy="10932"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -741,13 +743,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>147573</xdr:colOff>
+      <xdr:colOff>425480</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>156516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390940</xdr:colOff>
+      <xdr:colOff>668847</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>177199</xdr:rowOff>
     </xdr:to>
@@ -758,8 +760,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247503" y="4330951"/>
-          <a:ext cx="1595089" cy="252596"/>
+          <a:off x="1537104" y="4351998"/>
+          <a:ext cx="1606002" cy="253766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -803,13 +805,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>264713</xdr:colOff>
+      <xdr:colOff>533655</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>190832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>269257</xdr:colOff>
+      <xdr:colOff>547164</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>156516</xdr:rowOff>
     </xdr:to>
@@ -823,8 +825,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2040504" y="3669528"/>
-          <a:ext cx="4544" cy="661423"/>
+          <a:off x="2326596" y="3687067"/>
+          <a:ext cx="13509" cy="664931"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -852,16 +854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>226359</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:rowOff>222324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134918</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:rowOff>207084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -870,8 +872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1752600" y="2499360"/>
-          <a:ext cx="586740" cy="441960"/>
+          <a:off x="2019300" y="2553148"/>
+          <a:ext cx="589877" cy="450924"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -912,27 +914,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>269257</xdr:colOff>
+      <xdr:colOff>547164</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>177199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>281609</xdr:colOff>
+      <xdr:colOff>554899</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>20872</xdr:rowOff>
+      <xdr:rowOff>59970</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
+          <a:endCxn id="29" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2045048" y="4583547"/>
-          <a:ext cx="12352" cy="307499"/>
+          <a:off x="2340105" y="4605764"/>
+          <a:ext cx="7735" cy="348935"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -961,15 +964,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4356</xdr:colOff>
+      <xdr:colOff>273297</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>42041</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>567560</xdr:colOff>
+      <xdr:rowOff>59970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155183</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>58144</xdr:rowOff>
+      <xdr:rowOff>76073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -978,8 +981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1780147" y="4912215"/>
-          <a:ext cx="563204" cy="479929"/>
+          <a:off x="2066238" y="4954699"/>
+          <a:ext cx="563204" cy="482268"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1019,16 +1022,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>506302</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219432</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>121829</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:rowOff>148723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>354555</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>185416</xdr:rowOff>
+      <xdr:rowOff>212310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1037,8 +1040,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5002102" y="4922429"/>
-          <a:ext cx="1749218" cy="292187"/>
+          <a:off x="5418961" y="5043452"/>
+          <a:ext cx="1748770" cy="296670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,16 +1084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>567560</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>155183</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>39323</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>506302</xdr:colOff>
+      <xdr:rowOff>63975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219432</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>50093</xdr:rowOff>
+      <xdr:rowOff>68021</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1102,8 +1105,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2350640" y="5068523"/>
-          <a:ext cx="2651462" cy="10770"/>
+          <a:off x="2629442" y="5191787"/>
+          <a:ext cx="2789519" cy="4046"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1131,16 +1134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>699370</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152522</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>185416</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>705455</xdr:colOff>
+      <xdr:rowOff>212310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158989</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123110</xdr:rowOff>
+      <xdr:rowOff>150004</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1152,8 +1155,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5898899" y="5313228"/>
-          <a:ext cx="6085" cy="403858"/>
+          <a:off x="6293346" y="5340122"/>
+          <a:ext cx="6467" cy="403858"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1182,15 +1185,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>120753</xdr:colOff>
+      <xdr:colOff>344871</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>123110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>357826</xdr:colOff>
+      <xdr:rowOff>150004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251013</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>12609</xdr:rowOff>
+      <xdr:rowOff>39503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1199,8 +1202,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4638965" y="5717086"/>
-          <a:ext cx="2532037" cy="355664"/>
+          <a:off x="4863083" y="5743980"/>
+          <a:ext cx="2873459" cy="355664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,7 +1237,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DB</a:t>
+            <a:t>DB(apply)</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1247,16 +1250,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>408308</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>515885</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>136639</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>157322</xdr:rowOff>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519954</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22851</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1265,8 +1268,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1513208" y="6537439"/>
-          <a:ext cx="1588132" cy="249283"/>
+          <a:off x="946191" y="6624918"/>
+          <a:ext cx="2729339" cy="390404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1300,7 +1303,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勤怠申請が作成される</a:t>
+            <a:t>勤怠申請のフォーム画面が作成される</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1310,27 +1313,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>285958</xdr:colOff>
+      <xdr:colOff>516653</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>58144</xdr:rowOff>
+      <xdr:rowOff>76073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>289229</xdr:colOff>
+      <xdr:colOff>554899</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>104692</xdr:rowOff>
+      <xdr:rowOff>142621</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2061749" y="5392144"/>
-          <a:ext cx="3271" cy="510374"/>
+        <a:xfrm flipH="1">
+          <a:off x="2309594" y="5436967"/>
+          <a:ext cx="38246" cy="532713"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1359,25 +1363,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304469</xdr:colOff>
+      <xdr:colOff>516653</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>150412</xdr:rowOff>
+      <xdr:rowOff>163304</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304469</xdr:colOff>
+      <xdr:colOff>517920</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>112312</xdr:rowOff>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2087549" y="6094012"/>
-          <a:ext cx="0" cy="419100"/>
+          <a:off x="2309594" y="6223445"/>
+          <a:ext cx="1267" cy="401473"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1408,13 +1415,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>351987</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>133657</xdr:rowOff>
+      <xdr:rowOff>142621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>154340</xdr:rowOff>
+      <xdr:rowOff>163304</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1423,8 +1430,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1456887" y="5848657"/>
-          <a:ext cx="1682553" cy="249283"/>
+          <a:off x="1463611" y="5969680"/>
+          <a:ext cx="1691965" cy="253765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1468,13 +1475,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>517920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>521910</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>157322</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>524195</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>115727</xdr:rowOff>
     </xdr:to>
@@ -1487,9 +1494,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2314851" y="6916710"/>
-          <a:ext cx="2285" cy="424570"/>
+        <a:xfrm>
+          <a:off x="2310861" y="7015322"/>
+          <a:ext cx="3990" cy="325958"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1751,13 +1758,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>256343</xdr:colOff>
+      <xdr:colOff>14296</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>79348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>129872</xdr:colOff>
+      <xdr:colOff>367553</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>178598</xdr:rowOff>
     </xdr:to>
@@ -1768,8 +1775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1356273" y="11211174"/>
-          <a:ext cx="1901112" cy="331163"/>
+          <a:off x="1125920" y="11267301"/>
+          <a:ext cx="2397209" cy="332332"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1807,7 +1814,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DB</a:t>
+            <a:t>DB(apply)</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1821,13 +1828,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>531038</xdr:colOff>
+      <xdr:colOff>531584</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>87809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>541133</xdr:colOff>
+      <xdr:colOff>543862</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>79348</xdr:rowOff>
     </xdr:to>
@@ -1841,8 +1848,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2306829" y="10523896"/>
-          <a:ext cx="10095" cy="687278"/>
+          <a:off x="2324525" y="10576515"/>
+          <a:ext cx="12278" cy="690786"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1871,27 +1878,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>523793</xdr:colOff>
+      <xdr:colOff>531584</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>178598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>531038</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>189506</xdr:rowOff>
+      <xdr:colOff>535308</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>33462</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="68" idx="2"/>
+          <a:endCxn id="266" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2299584" y="11542337"/>
-          <a:ext cx="7245" cy="474734"/>
+        <a:xfrm>
+          <a:off x="2324525" y="11599633"/>
+          <a:ext cx="3724" cy="554111"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1920,15 +1928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>485231</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>79258</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>932984</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>32364</xdr:rowOff>
+      <xdr:colOff>879677</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>150975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>386135</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104082</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1937,7 +1945,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5684760" y="6605564"/>
+          <a:off x="6079206" y="6444199"/>
           <a:ext cx="447753" cy="419271"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
@@ -2050,16 +2058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>705455</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158989</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>12609</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>709108</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>79258</xdr:rowOff>
+      <xdr:rowOff>39503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162259</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>150975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2071,8 +2079,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5904984" y="6072750"/>
-          <a:ext cx="3653" cy="532814"/>
+          <a:off x="6299813" y="6099644"/>
+          <a:ext cx="3270" cy="344555"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2101,15 +2109,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>113961</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18246</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>564705</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>199953</xdr:rowOff>
+      <xdr:colOff>225614</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>204028</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2118,8 +2126,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8271843" y="3747564"/>
-          <a:ext cx="450744" cy="414789"/>
+          <a:off x="8383496" y="3287919"/>
+          <a:ext cx="458079" cy="412344"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -2397,13 +2405,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>63060</xdr:colOff>
+      <xdr:colOff>98919</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>68315</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15764</xdr:colOff>
+      <xdr:colOff>51623</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
@@ -2414,8 +2422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2522481" y="2380591"/>
-          <a:ext cx="630621" cy="315311"/>
+          <a:off x="2573178" y="2399139"/>
+          <a:ext cx="634021" cy="317166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2457,15 +2465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304045</xdr:colOff>
+      <xdr:colOff>465410</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>60338</xdr:rowOff>
+      <xdr:rowOff>51373</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>173604</xdr:colOff>
+      <xdr:colOff>334969</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>121983</xdr:rowOff>
+      <xdr:rowOff>113018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2474,8 +2482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5478025" y="2574938"/>
-          <a:ext cx="1484999" cy="290245"/>
+          <a:off x="5664939" y="2615279"/>
+          <a:ext cx="1483206" cy="294727"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2521,11 +2529,11 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>647740</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>59927</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>664540</xdr:colOff>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>221673</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>118260</xdr:rowOff>
     </xdr:to>
@@ -2536,8 +2544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7460916" y="2623833"/>
-          <a:ext cx="2033859" cy="291415"/>
+          <a:off x="7436467" y="2646218"/>
+          <a:ext cx="2234006" cy="298369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2575,7 +2583,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DB</a:t>
+            <a:t>DB(user)</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2589,15 +2597,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>173604</xdr:colOff>
+      <xdr:colOff>334969</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205635</xdr:rowOff>
+      <xdr:rowOff>198737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>647740</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>207702</xdr:rowOff>
+      <xdr:rowOff>203380</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2608,9 +2616,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6986780" y="2769541"/>
-          <a:ext cx="474136" cy="2067"/>
+        <a:xfrm>
+          <a:off x="7148145" y="2762643"/>
+          <a:ext cx="312771" cy="4643"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2639,28 +2647,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>319964</xdr:colOff>
+      <xdr:colOff>434707</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>118260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>339333</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>18246</xdr:rowOff>
+      <xdr:colOff>439271</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="71" idx="2"/>
-          <a:endCxn id="111" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8477846" y="2915248"/>
-          <a:ext cx="19369" cy="832316"/>
+          <a:off x="8592589" y="2915248"/>
+          <a:ext cx="4564" cy="303081"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2689,13 +2696,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>262890</xdr:colOff>
+      <xdr:colOff>521298</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:rowOff>207084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>264713</xdr:colOff>
+      <xdr:colOff>533655</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>129872</xdr:rowOff>
     </xdr:to>
@@ -2709,8 +2716,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2045970" y="2941320"/>
-          <a:ext cx="1823" cy="388952"/>
+          <a:off x="2314239" y="3004072"/>
+          <a:ext cx="12357" cy="388953"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2738,16 +2745,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>215848</xdr:rowOff>
+      <xdr:rowOff>215849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>46724</xdr:colOff>
+      <xdr:colOff>423242</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>68019</xdr:rowOff>
+      <xdr:rowOff>68020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2756,8 +2763,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1013460" y="2959048"/>
-          <a:ext cx="816344" cy="309371"/>
+          <a:off x="1393564" y="3012837"/>
+          <a:ext cx="822619" cy="318336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2859,15 +2866,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>349124</xdr:colOff>
+      <xdr:colOff>582207</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>74712</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>158796</xdr:rowOff>
+      <xdr:rowOff>173323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85165</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>24324</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2876,8 +2883,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2132204" y="5332512"/>
-          <a:ext cx="862455" cy="312684"/>
+          <a:off x="2375148" y="5534217"/>
+          <a:ext cx="865593" cy="317166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2918,16 +2925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>240034</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>392434</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654424</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>8778</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>111864</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>29460</xdr:rowOff>
+      <xdr:rowOff>215153</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2936,8 +2943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1351658" y="8166660"/>
-          <a:ext cx="1915782" cy="253765"/>
+          <a:off x="822740" y="8139766"/>
+          <a:ext cx="2987260" cy="233269"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2978,6 +2985,42 @@
             <a:t>DB</a:t>
           </a:r>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>attendance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>に保存する</a:t>
           </a:r>
@@ -2989,15 +3032,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>516608</xdr:colOff>
+      <xdr:colOff>521910</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>225678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>521910</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>8778</xdr:rowOff>
+      <xdr:colOff>523429</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214966</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3008,9 +3051,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2309549" y="7917396"/>
-          <a:ext cx="5302" cy="249264"/>
+        <a:xfrm>
+          <a:off x="2314851" y="7917396"/>
+          <a:ext cx="1519" cy="222370"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3039,9 +3082,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>516608</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>29460</xdr:rowOff>
+      <xdr:colOff>523429</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -3059,8 +3102,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2309549" y="8420425"/>
-          <a:ext cx="15828" cy="292946"/>
+          <a:off x="2316370" y="8373035"/>
+          <a:ext cx="9007" cy="340336"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3300,15 +3343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>293055</xdr:colOff>
+      <xdr:colOff>306910</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>199716</xdr:rowOff>
+      <xdr:rowOff>33462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>68532</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>151654</xdr:rowOff>
+      <xdr:colOff>82387</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>220928</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3317,8 +3360,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2085996" y="12319998"/>
-          <a:ext cx="456795" cy="418103"/>
+          <a:off x="2099851" y="12153744"/>
+          <a:ext cx="456795" cy="420549"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -3431,15 +3474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>354166</xdr:colOff>
+      <xdr:colOff>632073</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>145112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:rowOff>118219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244290</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>206072</xdr:rowOff>
+      <xdr:rowOff>179179</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3448,8 +3491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3493606" y="3345512"/>
-          <a:ext cx="1649894" cy="289560"/>
+          <a:off x="3787649" y="3381372"/>
+          <a:ext cx="1656170" cy="294042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3483,7 +3526,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DB</a:t>
+            <a:t>DB(user)</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -3497,27 +3540,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:colOff>390861</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>40466</xdr:rowOff>
+      <xdr:rowOff>32158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>301646</xdr:colOff>
+      <xdr:colOff>632073</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>44396</xdr:rowOff>
+      <xdr:rowOff>43811</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="291" name="直線矢印コネクタ 290"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="285" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2573572" y="3519162"/>
-          <a:ext cx="855587" cy="3930"/>
+          <a:off x="2865120" y="3528393"/>
+          <a:ext cx="922529" cy="11653"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3546,15 +3590,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>299168</xdr:colOff>
+      <xdr:colOff>654423</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200108</xdr:colOff>
+      <xdr:colOff>478014</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>122914</xdr:rowOff>
+      <xdr:rowOff>143533</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3564,9 +3608,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2074959" y="4050196"/>
-          <a:ext cx="1928523" cy="15240"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2447364" y="4105835"/>
+          <a:ext cx="1867544" cy="98"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3595,15 +3639,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200108</xdr:colOff>
+      <xdr:colOff>478014</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>115294</xdr:rowOff>
+      <xdr:rowOff>151153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>108668</xdr:colOff>
+      <xdr:colOff>386574</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>100054</xdr:rowOff>
+      <xdr:rowOff>135913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3612,8 +3656,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4003482" y="3825903"/>
-          <a:ext cx="584421" cy="448586"/>
+          <a:off x="4314908" y="3880471"/>
+          <a:ext cx="589878" cy="450924"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3653,16 +3697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>492319</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>91635</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>206072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>500933</xdr:colOff>
+      <xdr:rowOff>179179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>97522</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>115294</xdr:rowOff>
+      <xdr:rowOff>151153</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3674,8 +3718,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4295693" y="3684768"/>
-          <a:ext cx="8614" cy="141135"/>
+          <a:off x="4609847" y="3675414"/>
+          <a:ext cx="5887" cy="205057"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3704,29 +3748,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>535194</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>146125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>119978</xdr:colOff>
+      <xdr:colOff>386574</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>144730</xdr:rowOff>
+      <xdr:rowOff>143533</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="308" name="カギ線コネクタ 307"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="293" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2103120" y="3108960"/>
-          <a:ext cx="2512658" cy="921970"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2328135" y="3176196"/>
+          <a:ext cx="2576651" cy="929737"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -49471"/>
+            <a:gd name="adj1" fmla="val -67323"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3752,16 +3798,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>701300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>41251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>525779</xdr:colOff>
+      <xdr:colOff>522005</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>229510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>615427</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>125335</xdr:rowOff>
+      <xdr:rowOff>80512</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3770,8 +3816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5875280" y="3470251"/>
-          <a:ext cx="769359" cy="312684"/>
+          <a:off x="6662829" y="3492663"/>
+          <a:ext cx="765774" cy="317167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3818,15 +3864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>289158</xdr:colOff>
+      <xdr:colOff>351911</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>20379</xdr:rowOff>
+      <xdr:rowOff>29344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>380337</xdr:colOff>
+      <xdr:colOff>443090</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>107776</xdr:rowOff>
+      <xdr:rowOff>116741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3835,8 +3881,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2740810" y="3730988"/>
-          <a:ext cx="767040" cy="319310"/>
+          <a:off x="2826170" y="3758662"/>
+          <a:ext cx="772496" cy="320479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3938,6 +3984,259 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>36166</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>670187</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="437" name="テキスト ボックス 436"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4554378" y="1538527"/>
+          <a:ext cx="634021" cy="317166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>67479</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>118171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="446" name="テキスト ボックス 445"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10242420" y="1982830"/>
+          <a:ext cx="2263345" cy="295924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー情報を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に登録する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>291768</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>385482</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>179384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="451" name="テキスト ボックス 450"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5491297" y="7342095"/>
+          <a:ext cx="3724420" cy="295924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>attendance</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>）にデフォルト値勤怠情報が作成される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>519954</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>291768</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31422</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="452" name="カギ線コネクタ 451"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+          <a:endCxn id="451" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3675530" y="6820120"/>
+          <a:ext cx="1815767" cy="669937"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4613,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -290,6 +290,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,10 +349,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>904091</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>41462</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>221540</xdr:rowOff>
+          <xdr:rowOff>218739</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -367,7 +367,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1080"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1081"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -382,7 +382,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6103620" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1937,8 +1937,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5684760" y="6605564"/>
-          <a:ext cx="447753" cy="419271"/>
+          <a:off x="5617525" y="6657111"/>
+          <a:ext cx="447753" cy="423753"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -2118,8 +2118,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8271843" y="3747564"/>
-          <a:ext cx="450744" cy="414789"/>
+          <a:off x="8238226" y="3772217"/>
+          <a:ext cx="450744" cy="417030"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -3317,8 +3317,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2085996" y="12319998"/>
-          <a:ext cx="456795" cy="418103"/>
+          <a:off x="2063584" y="12425334"/>
+          <a:ext cx="447830" cy="422585"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -4270,16 +4270,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -4307,264 +4307,294 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -4572,36 +4602,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4613,19 +4613,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>

--- a/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -115,6 +115,85 @@
     <t>1.クラス図</t>
     <rPh sb="5" eb="6">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trycatchで、エラーが生じた場合</t>
+    <rPh sb="14" eb="15">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ「正しく申請されていません」と表示され、</t>
+    <rPh sb="6" eb="7">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理が申請ボタンを押す前に戻る。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値が正しく入力されていない、</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしくは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力の場合はバリエーション</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>で入力拒否される</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -290,6 +369,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,15 +386,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -349,10 +428,10 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>904091</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>41462</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>221540</xdr:rowOff>
+          <xdr:rowOff>218739</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -367,7 +446,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1085"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1089"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -382,7 +461,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6103620" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -406,16 +485,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>676447</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>129872</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>390861</xdr:colOff>
+      <xdr:rowOff>163490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>649942</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190832</xdr:rowOff>
+      <xdr:rowOff>224450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -424,8 +503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1788071" y="3393025"/>
-          <a:ext cx="1077049" cy="294042"/>
+          <a:off x="1008530" y="3446814"/>
+          <a:ext cx="2756647" cy="296283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -458,8 +537,20 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>username</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログインする</a:t>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>password</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を入力して認証する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -645,26 +736,26 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>198737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>465410</xdr:colOff>
+      <xdr:rowOff>204502</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345180</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203772</xdr:rowOff>
+      <xdr:rowOff>204893</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="70" idx="1"/>
+          <a:endCxn id="71" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5127811" y="2762643"/>
-          <a:ext cx="537128" cy="5035"/>
+          <a:off x="5069540" y="2781855"/>
+          <a:ext cx="1349228" cy="391"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -805,28 +896,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533655</xdr:colOff>
+      <xdr:colOff>579374</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>190832</xdr:rowOff>
+      <xdr:rowOff>224450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>547164</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>156516</xdr:rowOff>
+      <xdr:colOff>616325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174247</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="21" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2326596" y="3687067"/>
-          <a:ext cx="13509" cy="664931"/>
+        <a:xfrm flipH="1">
+          <a:off x="2349903" y="3743097"/>
+          <a:ext cx="36951" cy="185121"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -920,9 +1010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>554899</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>59970</xdr:rowOff>
+      <xdr:colOff>550417</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>183235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -934,8 +1024,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2340105" y="4605764"/>
-          <a:ext cx="7735" cy="348935"/>
+          <a:off x="2317693" y="4637140"/>
+          <a:ext cx="3253" cy="241360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -965,14 +1055,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>273297</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>59970</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>183235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>155183</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76073</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>199338</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -981,8 +1071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066238" y="4954699"/>
-          <a:ext cx="563204" cy="482268"/>
+          <a:off x="2043826" y="4878500"/>
+          <a:ext cx="554239" cy="486750"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1086,14 +1176,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>155183</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63975</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>191287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219432</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>68021</xdr:rowOff>
+      <xdr:rowOff>62855</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1104,9 +1194,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2629442" y="5191787"/>
-          <a:ext cx="2789519" cy="4046"/>
+        <a:xfrm>
+          <a:off x="2598065" y="5121875"/>
+          <a:ext cx="2753661" cy="106892"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1252,14 +1342,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>515885</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>64995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>519954</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>22851</xdr:rowOff>
+      <xdr:rowOff>224557</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1268,8 +1358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="946191" y="6624918"/>
-          <a:ext cx="2729339" cy="390404"/>
+          <a:off x="941709" y="6878171"/>
+          <a:ext cx="2693480" cy="394886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1313,15 +1403,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>516653</xdr:colOff>
+      <xdr:colOff>550417</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>199338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556995</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>76073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>554899</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142621</xdr:rowOff>
+      <xdr:rowOff>120211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1332,9 +1422,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2309594" y="5436967"/>
-          <a:ext cx="38246" cy="532713"/>
+        <a:xfrm>
+          <a:off x="2320946" y="5365250"/>
+          <a:ext cx="6578" cy="156196"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1363,28 +1453,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>516653</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>163304</xdr:rowOff>
+      <xdr:colOff>556995</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>517920</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>98612</xdr:rowOff>
+      <xdr:colOff>568076</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="45" idx="2"/>
-          <a:endCxn id="42" idx="0"/>
+          <a:endCxn id="134" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2309594" y="6223445"/>
-          <a:ext cx="1267" cy="401473"/>
+          <a:off x="2327524" y="5793442"/>
+          <a:ext cx="11081" cy="123264"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1413,15 +1503,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>351987</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142621</xdr:rowOff>
+      <xdr:colOff>318370</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>163304</xdr:rowOff>
+      <xdr:colOff>123266</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1430,8 +1520,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1463611" y="5969680"/>
-          <a:ext cx="1691965" cy="253765"/>
+          <a:off x="1416546" y="5521446"/>
+          <a:ext cx="1821955" cy="271996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,7 +1555,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>申請する年日選択する</a:t>
+            <a:t>申請する年月を選択する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1475,13 +1565,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
+      <xdr:colOff>517427</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>224557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>517920</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22851</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>521910</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>115727</xdr:rowOff>
     </xdr:to>
@@ -1494,9 +1584,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2310861" y="7015322"/>
-          <a:ext cx="3990" cy="325958"/>
+        <a:xfrm flipH="1">
+          <a:off x="2287956" y="7273057"/>
+          <a:ext cx="493" cy="126494"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1586,187 +1676,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>150222</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57867</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228561</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>166082</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1926013" y="9334389"/>
-          <a:ext cx="754200" cy="340128"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>申請する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>237358</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>93253</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>169047</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>87809</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="ひし形 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2013149" y="10065514"/>
-          <a:ext cx="607550" cy="458382"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>527322</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>166082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>541133</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>93253</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="直線矢印コネクタ 63"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="2"/>
-          <a:endCxn id="63" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2303113" y="9674517"/>
-          <a:ext cx="13811" cy="390997"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>14296</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>79348</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>367553</xdr:colOff>
+      <xdr:colOff>664238</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>202613</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>345142</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>178598</xdr:rowOff>
+      <xdr:rowOff>66539</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1775,8 +1694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1125920" y="11267301"/>
-          <a:ext cx="2397209" cy="332332"/>
+          <a:off x="1762414" y="11251613"/>
+          <a:ext cx="2370316" cy="334573"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1827,29 +1746,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>531584</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>87809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>543862</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>79348</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504690</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>202613</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="2"/>
           <a:endCxn id="68" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2324525" y="10576515"/>
-          <a:ext cx="12278" cy="690786"/>
+          <a:off x="2947572" y="11049000"/>
+          <a:ext cx="21987" cy="202613"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1877,16 +1795,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>531584</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>429971</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>178598</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>535308</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>33462</xdr:rowOff>
+      <xdr:rowOff>66539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504690</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22255</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1897,9 +1815,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2324525" y="11599633"/>
-          <a:ext cx="3724" cy="554111"/>
+        <a:xfrm flipH="1">
+          <a:off x="2872853" y="11586186"/>
+          <a:ext cx="74719" cy="191040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1945,8 +1863,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6079206" y="6444199"/>
-          <a:ext cx="447753" cy="419271"/>
+          <a:off x="6011971" y="6493504"/>
+          <a:ext cx="447752" cy="423754"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -2108,16 +2026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>225614</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>24766</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>11340</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>204028</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>147173</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>226473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>616458</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>170411</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2126,8 +2044,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8383496" y="3287919"/>
-          <a:ext cx="458079" cy="412344"/>
+          <a:off x="9638555" y="2568502"/>
+          <a:ext cx="469285" cy="414585"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -2239,16 +2157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>75290</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>91427</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>594872</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>92826</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2257,8 +2175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4593502" y="9181639"/>
-          <a:ext cx="2814546" cy="1632975"/>
+          <a:off x="212912" y="10253382"/>
+          <a:ext cx="5490882" cy="874059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2298,7 +2216,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>勤怠ステータスが「出勤」かつ勤務時間と休憩時間がデフォルトである場合</a:t>
+            <a:t>勤怠ステータスが「出勤」かつ勤務時間と休憩時間がデフォルトでない場合</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2317,7 +2235,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>もしくは</a:t>
+            <a:t>かつ</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US"/>
@@ -2336,7 +2254,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>勤怠ステータスが「休日」かつ勤務時間と休憩時間が入力されていた場合</a:t>
+            <a:t>勤怠ステータスが「休日」かつ勤務時間と休憩時間がデフォルト値の場合</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -2346,15 +2264,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>648480</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>147396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>346816</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>26603</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2404,16 +2322,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>98919</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68315</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>143742</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>135551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>51623</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2422,8 +2340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2573178" y="2399139"/>
-          <a:ext cx="634021" cy="317166"/>
+          <a:off x="143742" y="2948227"/>
+          <a:ext cx="3005111" cy="319408"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2454,8 +2372,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>未登録</a:t>
+            <a:t>テーブルに情報が保存されている</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2464,78 +2386,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>465410</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>345180</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>51373</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>334969</xdr:colOff>
+      <xdr:rowOff>55419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>113018</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="テキスト ボックス 69"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5664939" y="2615279"/>
-          <a:ext cx="1483206" cy="294727"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザーを登録する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>221673</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>118260</xdr:rowOff>
+      <xdr:rowOff>118261</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2544,8 +2404,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7436467" y="2646218"/>
-          <a:ext cx="2234006" cy="298369"/>
+          <a:off x="6418768" y="2632772"/>
+          <a:ext cx="2893320" cy="298165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2596,78 +2456,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>334969</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>198737</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647740</xdr:colOff>
+      <xdr:rowOff>198442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>147173</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203380</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="70" idx="3"/>
-          <a:endCxn id="71" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7148145" y="2762643"/>
-          <a:ext cx="312771" cy="4643"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>434707</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>118260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>439271</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>188258</xdr:rowOff>
+      <xdr:rowOff>204502</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="75" name="直線矢印コネクタ 74"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="71" idx="2"/>
+          <a:stCxn id="71" idx="3"/>
+          <a:endCxn id="111" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8592589" y="2915248"/>
-          <a:ext cx="4564" cy="303081"/>
+        <a:xfrm flipV="1">
+          <a:off x="9312088" y="2775795"/>
+          <a:ext cx="326467" cy="6060"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2696,15 +2507,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>521298</xdr:colOff>
+      <xdr:colOff>516815</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>207084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533655</xdr:colOff>
+      <xdr:colOff>616325</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>129872</xdr:rowOff>
+      <xdr:rowOff>163490</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2716,8 +2527,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314239" y="3004072"/>
-          <a:ext cx="12357" cy="388953"/>
+          <a:off x="2287344" y="3019760"/>
+          <a:ext cx="99510" cy="427054"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2745,16 +2556,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>215849</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>423242</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>68020</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>270734</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2763,8 +2574,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1393564" y="3012837"/>
-          <a:ext cx="822619" cy="318336"/>
+          <a:off x="2713616" y="2188083"/>
+          <a:ext cx="3483237" cy="322819"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,8 +2606,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>User</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>登録済み</a:t>
+            <a:t>テーブルに情報が保存されていない</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2865,16 +2680,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>582207</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133972</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>309283</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>173323</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>85165</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>24324</xdr:rowOff>
+      <xdr:rowOff>203618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2883,8 +2698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2375148" y="5534217"/>
-          <a:ext cx="865593" cy="317166"/>
+          <a:off x="2576854" y="5283205"/>
+          <a:ext cx="847664" cy="321648"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3082,15 +2897,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>523429</xdr:colOff>
+      <xdr:colOff>491664</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>532436</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>89324</xdr:rowOff>
+      <xdr:colOff>523430</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3101,9 +2916,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2316370" y="8373035"/>
-          <a:ext cx="9007" cy="340336"/>
+        <a:xfrm flipH="1">
+          <a:off x="2262193" y="8440271"/>
+          <a:ext cx="31766" cy="121024"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3132,15 +2947,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>299767</xdr:colOff>
+      <xdr:colOff>310974</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>89324</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>83787</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>166223</xdr:rowOff>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3149,8 +2964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2092708" y="8713371"/>
-          <a:ext cx="465338" cy="309981"/>
+          <a:off x="2081503" y="8561295"/>
+          <a:ext cx="361379" cy="257734"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3190,81 +3005,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>527953</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>155016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>83787</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>170703</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219052</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>11233</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="221" name="カギ線コネクタ 220"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="192" idx="3"/>
-          <a:endCxn id="48" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2558046" y="7629338"/>
-          <a:ext cx="816582" cy="1239024"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 234485"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>527322</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>166223</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>529708</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57867</xdr:rowOff>
+      <xdr:colOff>100885</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8559</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="233" name="直線矢印コネクタ 232"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="192" idx="2"/>
-          <a:endCxn id="58" idx="0"/>
+          <a:endCxn id="173" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2303113" y="8978919"/>
-          <a:ext cx="2386" cy="355470"/>
+        <a:xfrm>
+          <a:off x="2298482" y="8850781"/>
+          <a:ext cx="245285" cy="324190"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3292,31 +3054,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>603710</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>229071</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>97157</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>229721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="245" name="カギ線コネクタ 244"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="3"/>
+          <a:endCxn id="192" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2396651" y="9199070"/>
-          <a:ext cx="306679" cy="1153711"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+          <a:off x="2442882" y="8690162"/>
+          <a:ext cx="3260912" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -605880"/>
-            <a:gd name="adj2" fmla="val 99879"/>
+            <a:gd name="adj1" fmla="val -7010"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3342,16 +3106,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>306910</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>33462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>82387</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>220928</xdr:rowOff>
+      <xdr:colOff>206056</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>22255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>653886</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>209721</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3360,8 +3124,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2099851" y="12153744"/>
-          <a:ext cx="456795" cy="420549"/>
+          <a:off x="2648938" y="11777226"/>
+          <a:ext cx="447830" cy="422789"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -3473,95 +3237,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>632073</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>118219</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>244290</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179179</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="285" name="テキスト ボックス 284"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3787649" y="3381372"/>
-          <a:ext cx="1656170" cy="294042"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DB(user)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>でログイン認証する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390861</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>32158</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>632073</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43811</xdr:rowOff>
+      <xdr:colOff>196074</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="291" name="直線矢印コネクタ 290"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="285" idx="1"/>
+          <a:stCxn id="293" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2865120" y="3528393"/>
-          <a:ext cx="922529" cy="11653"/>
+        <a:xfrm>
+          <a:off x="2638956" y="4031974"/>
+          <a:ext cx="2179573" cy="13349"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3590,64 +3287,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>654423</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>478014</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>143533</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="292" name="直線矢印コネクタ 291"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="293" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2447364" y="4105835"/>
-          <a:ext cx="1867544" cy="98"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>478014</xdr:colOff>
+      <xdr:colOff>287514</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>151153</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>386574</xdr:colOff>
+      <xdr:rowOff>50299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>196074</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>135913</xdr:rowOff>
+      <xdr:rowOff>35059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3656,8 +3304,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4314908" y="3880471"/>
-          <a:ext cx="589878" cy="450924"/>
+          <a:off x="2058043" y="3804270"/>
+          <a:ext cx="580913" cy="455407"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3697,29 +3345,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>91635</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>179179</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>97522</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>151153</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>31036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="298" name="直線矢印コネクタ 297"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="285" idx="2"/>
-          <a:endCxn id="293" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4609847" y="3675414"/>
-          <a:ext cx="5887" cy="205057"/>
+          <a:off x="2342029" y="4255654"/>
+          <a:ext cx="11205" cy="204287"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3748,31 +3393,29 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>535194</xdr:colOff>
+      <xdr:colOff>568811</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>146125</xdr:rowOff>
+      <xdr:rowOff>112507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>386574</xdr:colOff>
+      <xdr:colOff>420191</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>143533</xdr:rowOff>
+      <xdr:rowOff>109915</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="308" name="カギ線コネクタ 307"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="293" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2328135" y="3176196"/>
-          <a:ext cx="2576651" cy="929737"/>
+          <a:off x="2339340" y="3160507"/>
+          <a:ext cx="2540792" cy="938702"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -67323"/>
+            <a:gd name="adj1" fmla="val -16603"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3798,14 +3441,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>522005</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286681</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>229510</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>615427</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122368</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>80512</xdr:rowOff>
     </xdr:to>
@@ -3816,8 +3459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6662829" y="3492663"/>
-          <a:ext cx="765774" cy="317167"/>
+          <a:off x="5418975" y="3512834"/>
+          <a:ext cx="776981" cy="321649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3863,16 +3506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>351911</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239852</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>29344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>443090</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>116741</xdr:rowOff>
+      <xdr:rowOff>186226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3881,8 +3524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2826170" y="3758662"/>
-          <a:ext cx="772496" cy="320479"/>
+          <a:off x="239852" y="3940197"/>
+          <a:ext cx="903148" cy="322720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3928,66 +3571,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647791</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>160006</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>637391</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>11007</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="315" name="テキスト ボックス 314"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4484685" y="8084806"/>
-          <a:ext cx="2293530" cy="317166"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>入力したデータを変更する場合</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>36166</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -4045,16 +3628,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>67479</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>118171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>313765</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>181013</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>549332</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>84553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>147395</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4063,8 +3646,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10242420" y="1982830"/>
-          <a:ext cx="2263345" cy="295924"/>
+          <a:off x="5009273" y="2426582"/>
+          <a:ext cx="2296963" cy="298166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4098,15 +3681,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザー情報を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>に登録する</a:t>
+            <a:t>バリでエーション</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4115,15 +3690,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>291768</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>116542</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>385482</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>347797</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>82924</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>179384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4133,8 +3708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5491297" y="7342095"/>
-          <a:ext cx="3724420" cy="295924"/>
+          <a:off x="773621" y="6459072"/>
+          <a:ext cx="3769244" cy="298165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4189,33 +3764,516 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>519954</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>60732</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>291768</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>31422</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>284630</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>195203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56444</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>198391</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="452" name="カギ線コネクタ 451"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2055159" y="5831762"/>
+          <a:ext cx="1788873" cy="473835"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76310"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>418974</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29008</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="ひし形 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2189503" y="5916706"/>
+          <a:ext cx="298203" cy="219508"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>574801</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>51549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586132</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2345330" y="6158755"/>
+          <a:ext cx="11331" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286667</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>297998</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101657</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="直線矢印コネクタ 140"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5418961" y="5043452"/>
+          <a:ext cx="11331" cy="224117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>223849</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3339084" y="5508656"/>
+          <a:ext cx="1143270" cy="340815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>同じ年月選択された場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>67299</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>235322</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="テキスト ボックス 172"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1837828" y="9174971"/>
+          <a:ext cx="1411878" cy="226763"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67268</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>195829</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="211" name="直線矢印コネクタ 210"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="3"/>
-          <a:endCxn id="451" idx="1"/>
+          <a:endCxn id="311" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3675530" y="6820120"/>
-          <a:ext cx="1815767" cy="669937"/>
+          <a:off x="2510150" y="9356911"/>
+          <a:ext cx="128561" cy="320490"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15139</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="ひし形 310"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2458021" y="9677401"/>
+          <a:ext cx="361379" cy="257734"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>220912</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>60888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="312" name="直線矢印コネクタ 311"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="123" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2663794" y="9933270"/>
+          <a:ext cx="294559" cy="320112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>310974</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>229721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15139</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>169209</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="317" name="カギ線コネクタ 316"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="311" idx="1"/>
+          <a:endCxn id="192" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2081503" y="8690162"/>
+          <a:ext cx="376518" cy="1116106"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 580356"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4569,16 +4627,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -4595,7 +4653,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -4606,264 +4664,294 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -4871,36 +4959,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4910,29 +4968,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="8" width="8.8984375" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="61" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="10485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
     <sheet name="〇〇処理" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇処理!$A$1:$S$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇処理!$A$1:$Y$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -118,91 +118,12 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>trycatchで、エラーが生じた場合</t>
-    <rPh sb="14" eb="15">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージ「正しく申請されていません」と表示され、</t>
-    <rPh sb="6" eb="7">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>処理が申請ボタンを押す前に戻る。</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値が正しく入力されていない、</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もしくは</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>未入力の場合はバリエーション</t>
-    <rPh sb="0" eb="3">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>で入力拒否される</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +150,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -347,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,6 +298,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -377,15 +315,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -398,6 +327,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,9 +361,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>41462</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>218739</xdr:rowOff>
+          <xdr:colOff>279763</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -446,7 +378,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1089"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1095"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -461,7 +393,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="676275"/>
+              <a:ext cx="6103620" cy="685800"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -485,16 +417,16 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>582706</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482473</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>163490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>649942</xdr:colOff>
+      <xdr:rowOff>132424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558225</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>224450</xdr:rowOff>
+      <xdr:rowOff>193384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -503,8 +435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1008530" y="3446814"/>
-          <a:ext cx="2756647" cy="296283"/>
+          <a:off x="1590304" y="3332824"/>
+          <a:ext cx="2795506" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,13 +491,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>284182</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>60064</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -621,13 +553,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>512782</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>521298</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>222324</xdr:rowOff>
@@ -671,16 +603,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368691</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>56751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:rowOff>45028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539261</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>117711</xdr:rowOff>
+      <xdr:rowOff>105988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -689,8 +621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="2571351"/>
-          <a:ext cx="1790699" cy="289560"/>
+          <a:off x="6236091" y="2559628"/>
+          <a:ext cx="1794216" cy="289560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -733,64 +665,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>204502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>345180</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>204893</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="71" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5069540" y="2781855"/>
-          <a:ext cx="1349228" cy="391"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>134918</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:rowOff>189808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368691</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>214704</xdr:rowOff>
     </xdr:to>
@@ -804,8 +686,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2609177" y="2767678"/>
-          <a:ext cx="721659" cy="10932"/>
+          <a:off x="3282564" y="2704408"/>
+          <a:ext cx="2953527" cy="24896"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -833,16 +715,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>425480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>156516</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>668847</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>177199</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>372140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>672801</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -851,8 +733,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1537104" y="4351998"/>
-          <a:ext cx="1606002" cy="253766"/>
+          <a:off x="2155220" y="4646856"/>
+          <a:ext cx="1657021" cy="262364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,28 +777,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>579374</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520349</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>224450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>616325</xdr:colOff>
+      <xdr:rowOff>193384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>521465</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>174247</xdr:rowOff>
+      <xdr:rowOff>147371</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="293" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2349903" y="3743097"/>
-          <a:ext cx="36951" cy="185121"/>
+        <a:xfrm>
+          <a:off x="2988057" y="3622384"/>
+          <a:ext cx="1116" cy="182587"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -944,13 +827,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>226359</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>222324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>134918</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>207084</xdr:rowOff>
@@ -1003,16 +886,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>547164</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>177199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>550417</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>183235</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>522470</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539162</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177949</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1024,8 +907,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2317693" y="4637140"/>
-          <a:ext cx="3253" cy="241360"/>
+          <a:off x="2996729" y="5003349"/>
+          <a:ext cx="16692" cy="302412"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1053,16 +936,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>273297</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>183235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>155183</xdr:colOff>
+      <xdr:colOff>251332</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>199338</xdr:rowOff>
+      <xdr:rowOff>177949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1071,8 +954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2043826" y="4878500"/>
-          <a:ext cx="554239" cy="486750"/>
+          <a:off x="2725591" y="5305761"/>
+          <a:ext cx="575660" cy="436902"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1112,16 +995,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219432</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>148723</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>354555</xdr:colOff>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>212310</xdr:rowOff>
+      <xdr:rowOff>220616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>399613</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52290</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1130,8 +1013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5418961" y="5043452"/>
-          <a:ext cx="1748770" cy="296670"/>
+          <a:off x="7476565" y="5348428"/>
+          <a:ext cx="1771213" cy="297838"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1165,7 +1048,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>閲覧する年月を選択する</a:t>
+            <a:t>閲覧する年月を入力する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1174,16 +1057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>155183</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>191287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219432</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>62855</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>163318</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1194,9 +1077,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2598065" y="5121875"/>
-          <a:ext cx="2753661" cy="106892"/>
+        <a:xfrm flipV="1">
+          <a:off x="3301251" y="5497347"/>
+          <a:ext cx="4175314" cy="26865"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1224,29 +1107,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152522</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>212310</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158989</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>150004</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>399613</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>576776</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136453</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="2"/>
-          <a:endCxn id="41" idx="0"/>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="160" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6293346" y="5340122"/>
-          <a:ext cx="6467" cy="403858"/>
+        <a:xfrm flipV="1">
+          <a:off x="9247778" y="5493226"/>
+          <a:ext cx="849516" cy="4121"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1274,16 +1157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>344871</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281222</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>187364</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>150004</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>251013</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>39503</xdr:rowOff>
+      <xdr:rowOff>211568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1292,8 +1175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4863083" y="5743980"/>
-          <a:ext cx="2873459" cy="355664"/>
+          <a:off x="11109242" y="5081489"/>
+          <a:ext cx="2588382" cy="616479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1340,16 +1223,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>515885</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>64995</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>519954</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>224557</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>553723</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>94162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579121</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22496</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1358,8 +1241,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="941709" y="6878171"/>
-          <a:ext cx="2693480" cy="394886"/>
+          <a:off x="1658623" y="8095162"/>
+          <a:ext cx="2738118" cy="385534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1402,16 +1285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>550417</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>199338</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556995</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>120211</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>539162</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>148687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>555650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147105</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1423,8 +1306,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2320946" y="5365250"/>
-          <a:ext cx="6578" cy="156196"/>
+          <a:off x="3013421" y="5742663"/>
+          <a:ext cx="16488" cy="697666"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1452,29 +1335,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>556995</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>568076</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>555650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>183778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>557091</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43477</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="45" idx="2"/>
-          <a:endCxn id="134" idx="0"/>
+          <a:endCxn id="320" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2327524" y="5793442"/>
-          <a:ext cx="11081" cy="123264"/>
+          <a:off x="3029909" y="6710084"/>
+          <a:ext cx="1441" cy="325864"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1502,16 +1385,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>318370</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>120211</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>123266</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>309406</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>147105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>120576</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>183778</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1520,8 +1403,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1416546" y="5521446"/>
-          <a:ext cx="1821955" cy="271996"/>
+          <a:off x="2102347" y="6440329"/>
+          <a:ext cx="1855123" cy="269755"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1555,7 +1438,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>申請する年月を選択する</a:t>
+            <a:t>申請する年月を入力する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1564,16 +1447,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>517427</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>224557</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>517920</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>115727</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566422</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>567025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108107</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1584,9 +1467,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2287956" y="7273057"/>
-          <a:ext cx="493" cy="126494"/>
+        <a:xfrm>
+          <a:off x="3027682" y="8480696"/>
+          <a:ext cx="603" cy="542811"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1615,15 +1498,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>143449</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>115727</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219052</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>225678</xdr:rowOff>
+      <xdr:colOff>516829</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>218058</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1632,8 +1515,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1255073" y="7341280"/>
-          <a:ext cx="2119555" cy="576116"/>
+          <a:off x="1621729" y="9023507"/>
+          <a:ext cx="2813111" cy="567151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1677,15 +1560,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>664238</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>202613</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>345142</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66539</xdr:rowOff>
+      <xdr:colOff>424109</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105013</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>144661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1694,8 +1577,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1762414" y="11251613"/>
-          <a:ext cx="2370316" cy="334573"/>
+          <a:off x="1523566" y="15614222"/>
+          <a:ext cx="3055476" cy="325610"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1747,27 +1630,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>504690</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>591351</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>202613</xdr:rowOff>
+      <xdr:colOff>602018</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>47651</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="69" name="直線矢印コネクタ 68"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="2"/>
           <a:endCxn id="68" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2947572" y="11049000"/>
-          <a:ext cx="21987" cy="202613"/>
+        <a:xfrm>
+          <a:off x="3040637" y="14826343"/>
+          <a:ext cx="10667" cy="787879"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1796,15 +1680,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>429971</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>66539</xdr:rowOff>
+      <xdr:colOff>561239</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>144661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>504690</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>22255</xdr:rowOff>
+      <xdr:colOff>602018</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>156726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1816,8 +1700,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2872853" y="11586186"/>
-          <a:ext cx="74719" cy="191040"/>
+          <a:off x="3010525" y="15939832"/>
+          <a:ext cx="40779" cy="1155065"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1845,16 +1729,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>879677</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>664076</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>150975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>386135</xdr:colOff>
+      <xdr:rowOff>133046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104082</xdr:rowOff>
+      <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1863,8 +1747,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6011971" y="6493504"/>
-          <a:ext cx="447752" cy="423754"/>
+          <a:off x="12159390" y="6305246"/>
+          <a:ext cx="530792" cy="458626"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -1976,16 +1860,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>158989</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>39503</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>162259</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>234294</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>211568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255838</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>150975</xdr:rowOff>
+      <xdr:rowOff>133046</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1997,8 +1881,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6299813" y="6099644"/>
-          <a:ext cx="3270" cy="344555"/>
+          <a:off x="12444223" y="5805544"/>
+          <a:ext cx="21544" cy="620726"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2026,16 +1910,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>147173</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>226473</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>616458</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10013</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>479298</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>170411</xdr:rowOff>
+      <xdr:rowOff>178031</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2044,8 +1928,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9638555" y="2568502"/>
-          <a:ext cx="469285" cy="414585"/>
+          <a:off x="14204984" y="2520093"/>
+          <a:ext cx="469285" cy="401138"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -2158,15 +2042,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>124161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>528918</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2175,8 +2059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="212912" y="10253382"/>
-          <a:ext cx="5490882" cy="874059"/>
+          <a:off x="403412" y="13861932"/>
+          <a:ext cx="5274449" cy="964411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2185,7 +2069,9 @@
           <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2264,16 +2150,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>648480</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>147396</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>346816</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>26603</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>522973</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>192220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257168</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>71427</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2282,8 +2168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2441421" y="10636102"/>
-          <a:ext cx="1742289" cy="578454"/>
+          <a:off x="13405255" y="14643326"/>
+          <a:ext cx="2423607" cy="578454"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2323,15 +2209,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>143742</xdr:colOff>
+      <xdr:colOff>280902</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>135551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>219635</xdr:rowOff>
+      <xdr:rowOff>150791</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2340,8 +2226,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="143742" y="2948227"/>
-          <a:ext cx="3005111" cy="319408"/>
+          <a:off x="280902" y="2893991"/>
+          <a:ext cx="2447058" cy="312684"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2386,16 +2272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>345180</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>502855</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>55419</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
+      <xdr:rowOff>65383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>661939</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>118261</xdr:rowOff>
+      <xdr:rowOff>128225</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2404,8 +2290,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6418768" y="2632772"/>
-          <a:ext cx="2893320" cy="298165"/>
+          <a:off x="10666763" y="2579983"/>
+          <a:ext cx="2831945" cy="291442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2456,16 +2342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504264</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>661939</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>198442</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>147173</xdr:colOff>
+      <xdr:rowOff>206062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10013</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>204502</xdr:rowOff>
+      <xdr:rowOff>211104</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2477,8 +2363,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9312088" y="2775795"/>
-          <a:ext cx="326467" cy="6060"/>
+          <a:off x="13501639" y="2720662"/>
+          <a:ext cx="689194" cy="5042"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2506,16 +2392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>516815</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520349</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>207084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>616325</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520608</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>163490</xdr:rowOff>
+      <xdr:rowOff>132424</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2526,9 +2412,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2287344" y="3019760"/>
-          <a:ext cx="99510" cy="427054"/>
+        <a:xfrm flipH="1">
+          <a:off x="2988057" y="2950284"/>
+          <a:ext cx="259" cy="382540"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2556,15 +2442,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>270734</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>81377</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>261771</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>243083</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>168873</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2574,8 +2460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713616" y="2188083"/>
-          <a:ext cx="3483237" cy="322819"/>
+          <a:off x="3417347" y="2412200"/>
+          <a:ext cx="2706583" cy="320579"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2620,16 +2506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>594288</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114630</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>32900</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>493434</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170328</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>93860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2638,8 +2524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3045940" y="4818990"/>
-          <a:ext cx="872064" cy="315997"/>
+          <a:off x="5011646" y="5100469"/>
+          <a:ext cx="1039529" cy="354285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2671,7 +2557,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>閲覧する</a:t>
+            <a:t>閲覧する場合</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2680,16 +2566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133972</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>117293</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>309283</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>203618</xdr:rowOff>
+      <xdr:colOff>5737</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181048</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2698,8 +2584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2576854" y="5283205"/>
-          <a:ext cx="847664" cy="321648"/>
+          <a:off x="3161313" y="5528468"/>
+          <a:ext cx="856629" cy="334449"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2731,7 +2617,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>申請する</a:t>
+            <a:t>申請する場合</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2740,16 +2626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>392434</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>214966</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>654424</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>215153</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>475358</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>654423</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2758,8 +2644,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="822740" y="8139766"/>
-          <a:ext cx="2987260" cy="233269"/>
+          <a:off x="1586982" y="10327341"/>
+          <a:ext cx="2904335" cy="322730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2846,16 +2732,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>521910</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>225678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523429</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>214966</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>564891</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>218058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>567025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>71717</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2866,9 +2752,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2314851" y="7917396"/>
-          <a:ext cx="1519" cy="222370"/>
+        <a:xfrm flipH="1">
+          <a:off x="3039150" y="9774434"/>
+          <a:ext cx="2134" cy="552907"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2896,16 +2782,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>491664</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>215153</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523430</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>564726</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>564891</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>184674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2917,8 +2803,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2262193" y="8440271"/>
-          <a:ext cx="31766" cy="121024"/>
+          <a:off x="3038985" y="10650071"/>
+          <a:ext cx="165" cy="489474"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2946,16 +2832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>310974</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:colOff>379554</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>184674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>207084</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2964,8 +2850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2081503" y="8561295"/>
-          <a:ext cx="361379" cy="257734"/>
+          <a:off x="2840814" y="10928874"/>
+          <a:ext cx="367206" cy="251010"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3005,28 +2891,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>527953</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>155016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100885</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>8559</xdr:rowOff>
+      <xdr:colOff>564726</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>207084</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>599098</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="233" name="直線矢印コネクタ 232"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="192" idx="2"/>
           <a:endCxn id="173" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2298482" y="8850781"/>
-          <a:ext cx="245285" cy="324190"/>
+          <a:off x="3038985" y="11395037"/>
+          <a:ext cx="34372" cy="384588"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3055,67 +2942,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>229721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="245" name="カギ線コネクタ 244"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="123" idx="3"/>
-          <a:endCxn id="192" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2442882" y="8690162"/>
-          <a:ext cx="3260912" cy="2000250"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -7010"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>206056</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>22255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>653886</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>209721</xdr:rowOff>
+      <xdr:colOff>340525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>156726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>107038</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>111109</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3124,8 +2959,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2648938" y="11777226"/>
-          <a:ext cx="447830" cy="422789"/>
+          <a:off x="2789811" y="17094897"/>
+          <a:ext cx="441427" cy="411583"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -3238,64 +3073,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>196074</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>42680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="291" name="直線矢印コネクタ 290"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="293" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2638956" y="4031974"/>
-          <a:ext cx="2179573" cy="13349"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>287514</xdr:colOff>
+      <xdr:colOff>227216</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>50299</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>196074</xdr:colOff>
+      <xdr:rowOff>147371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>135776</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>35059</xdr:rowOff>
+      <xdr:rowOff>132131</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3304,8 +3090,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2058043" y="3804270"/>
-          <a:ext cx="580913" cy="455407"/>
+          <a:off x="2678868" y="3857980"/>
+          <a:ext cx="584421" cy="448586"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3345,26 +3131,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520586</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>31036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>132131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>522471</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74856</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="298" name="直線矢印コネクタ 297"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="293" idx="2"/>
+          <a:endCxn id="21" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2342029" y="4255654"/>
-          <a:ext cx="11205" cy="204287"/>
+        <a:xfrm>
+          <a:off x="2981846" y="4246931"/>
+          <a:ext cx="1885" cy="399925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3392,30 +3181,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>568811</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>112507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>420191</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>135776</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>109915</xdr:rowOff>
+      <xdr:rowOff>139751</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="308" name="カギ線コネクタ 307"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="293" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2339340" y="3160507"/>
-          <a:ext cx="2540792" cy="938702"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+          <a:off x="3020463" y="3127377"/>
+          <a:ext cx="242826" cy="954896"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -16603"/>
+            <a:gd name="adj1" fmla="val -942779"/>
+            <a:gd name="adj2" fmla="val 99909"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3442,15 +3234,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>286681</xdr:colOff>
+      <xdr:colOff>479091</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>229510</xdr:rowOff>
+      <xdr:rowOff>213200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>122368</xdr:colOff>
+      <xdr:colOff>586447</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>80512</xdr:rowOff>
+      <xdr:rowOff>64202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3459,8 +3251,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5418975" y="3512834"/>
-          <a:ext cx="776981" cy="321649"/>
+          <a:off x="5666553" y="3413600"/>
+          <a:ext cx="787294" cy="308202"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3506,16 +3298,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>239852</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>303294</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>38299</xdr:rowOff>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>263768</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3524,8 +3316,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="239852" y="3940197"/>
-          <a:ext cx="903148" cy="322720"/>
+          <a:off x="2091063" y="4237892"/>
+          <a:ext cx="640413" cy="343788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3571,13 +3363,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>36166</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>140033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>670187</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>224117</xdr:rowOff>
@@ -3628,16 +3420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>549332</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>84553</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147395</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38207</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>319904</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>162049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3646,8 +3438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5009273" y="2426582"/>
-          <a:ext cx="2296963" cy="298166"/>
+          <a:off x="9533899" y="1470807"/>
+          <a:ext cx="2286343" cy="291442"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3691,15 +3483,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>347797</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>116543</xdr:rowOff>
+      <xdr:colOff>508989</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>198018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>82924</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>179384</xdr:rowOff>
+      <xdr:colOff>624508</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3708,8 +3500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="773621" y="6459072"/>
-          <a:ext cx="3769244" cy="298165"/>
+          <a:off x="935709" y="7284618"/>
+          <a:ext cx="4184599" cy="291441"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3764,31 +3556,156 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>417654</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14546</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>191048</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6298501" y="7082511"/>
+          <a:ext cx="1891857" cy="334090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>同じ年月選択された場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>284630</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>195203</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>56444</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>198391</xdr:rowOff>
+      <xdr:colOff>590838</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607359</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200809</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="テキスト ボックス 172"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2383779" y="11779625"/>
+          <a:ext cx="1379156" cy="308384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>申請ボタンを押す</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586017</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>599098</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>223222</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="452" name="カギ線コネクタ 451"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="211" name="直線矢印コネクタ 210"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="173" idx="2"/>
+          <a:endCxn id="311" idx="0"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2055159" y="5831762"/>
-          <a:ext cx="1788873" cy="473835"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 76310"/>
-          </a:avLst>
+        <a:xfrm flipH="1">
+          <a:off x="3060276" y="12088009"/>
+          <a:ext cx="13081" cy="488578"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -3813,26 +3730,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>418974</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>29008</xdr:rowOff>
+      <xdr:colOff>403759</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>223222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>86958</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>17033</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="ひし形 133"/>
+        <xdr:cNvPr id="311" name="ひし形 310"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2189503" y="5916706"/>
-          <a:ext cx="298203" cy="219508"/>
+          <a:off x="2865019" y="12339022"/>
+          <a:ext cx="361379" cy="251011"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -3872,29 +3789,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>574801</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>51549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>586132</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>40343</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>379555</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403760</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>120129</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvPr id="317" name="カギ線コネクタ 316"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="311" idx="1"/>
+          <a:endCxn id="192" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2345330" y="6158755"/>
-          <a:ext cx="11331" cy="224117"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:xfrm rot="10800000">
+          <a:off x="2840815" y="11054380"/>
+          <a:ext cx="24205" cy="1410149"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7246209"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -3919,246 +3841,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>286667</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>112864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>297998</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>101657</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="141" name="直線矢印コネクタ 140"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5418961" y="5043452"/>
-          <a:ext cx="11331" cy="224117"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>223849</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>107421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108439</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>208532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28721</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>193292</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3339084" y="5508656"/>
-          <a:ext cx="1143270" cy="340815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>同じ年月選択された場合</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67299</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>8559</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>235322</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="テキスト ボックス 172"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1837828" y="9174971"/>
-          <a:ext cx="1411878" cy="226763"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>申請ボタンを押す</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67268</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>195829</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="211" name="直線矢印コネクタ 210"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="311" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2510150" y="9356911"/>
-          <a:ext cx="128561" cy="320490"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15139</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>376518</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="311" name="ひし形 310"/>
+        <xdr:cNvPr id="109" name="ひし形 108"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2458021" y="9677401"/>
-          <a:ext cx="361379" cy="257734"/>
+          <a:off x="8935916" y="2494532"/>
+          <a:ext cx="588497" cy="441960"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4198,28 +3900,753 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>220912</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>60888</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>539261</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>189808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>108439</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="312" name="直線矢印コネクタ 311"/>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112"/>
         <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="109" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8030307" y="2704408"/>
+          <a:ext cx="905609" cy="11104"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28721</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>502855</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>211104</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直線矢印コネクタ 118"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="3"/>
+          <a:endCxn id="71" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9524413" y="2715512"/>
+          <a:ext cx="1142350" cy="10192"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585861</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>402688</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>193292</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="カギ線コネクタ 126"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="2"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="8138030" y="1844357"/>
+          <a:ext cx="87304" cy="2096966"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -792245"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>739658</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398585</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>92672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="テキスト ボックス 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7286996" y="3662776"/>
+          <a:ext cx="1939066" cy="316096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>何も入力されていない場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566422</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566749</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>94162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直線矢印コネクタ 144"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="451" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3027682" y="7576059"/>
+          <a:ext cx="327" cy="519103"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>576776</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>497058</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124712</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="ひし形 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10063676" y="5169152"/>
+          <a:ext cx="590842" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>497058</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>131929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281222</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>132332</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="直線矢印コネクタ 163"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="3"/>
+          <a:endCxn id="41" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10654518" y="5389729"/>
+          <a:ext cx="454724" cy="403"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>186360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>52290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200741</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>124712</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="カギ線コネクタ 166"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="2"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="9341681" y="4666757"/>
+          <a:ext cx="72422" cy="2031440"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -439434"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>224602</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>105582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157849</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>193077</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="テキスト ボックス 171"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8400414" y="6165723"/>
+          <a:ext cx="1950306" cy="320578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>何も入力していない場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480508</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="テキスト ボックス 199"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11347076"/>
+          <a:ext cx="2263588" cy="905883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>値が正しく入力されていない、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>もしくは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>未入力の場合はバリエーション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で入力拒否される</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>936392</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>82741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>453361</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>186338</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="テキスト ボックス 201"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7435163" y="14049112"/>
+          <a:ext cx="5863341" cy="560797"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>trycatch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>で、エラーが生じた場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>メッセージ「正しく申請されていません」と表示され、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>処理が申請ボタンを押す前に戻る。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>582816</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>17033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>591351</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>124161</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="289" name="直線矢印コネクタ 288"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="311" idx="2"/>
           <a:endCxn id="123" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2663794" y="9933270"/>
-          <a:ext cx="294559" cy="320112"/>
+          <a:off x="3032102" y="13297604"/>
+          <a:ext cx="8535" cy="564328"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4247,34 +4674,291 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>310974</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>229721</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>15139</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>169209</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>81579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>221348</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>82741</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="317" name="カギ線コネクタ 316"/>
+        <xdr:cNvPr id="290" name="カギ線コネクタ 289"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="311" idx="1"/>
-          <a:endCxn id="192" idx="1"/>
+          <a:stCxn id="202" idx="0"/>
+          <a:endCxn id="192" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="2081503" y="8690162"/>
-          <a:ext cx="376518" cy="1116106"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 580356"/>
-          </a:avLst>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="5636226" y="9318504"/>
+          <a:ext cx="2287162" cy="7174054"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>528918</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>134540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>936392</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>149167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="296" name="直線矢印コネクタ 295"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="3"/>
+          <a:endCxn id="202" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5677861" y="14329511"/>
+          <a:ext cx="1757302" cy="14627"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>269261</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163604</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>32144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="ひし形 319"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743520" y="7035948"/>
+          <a:ext cx="575660" cy="454831"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>163604</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>417654</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>37811</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="321" name="直線矢印コネクタ 320"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="320" idx="3"/>
+          <a:endCxn id="142" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3319180" y="7249556"/>
+          <a:ext cx="2979321" cy="13808"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>557091</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>32144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566749</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>198018</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="323" name="直線矢印コネクタ 322"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="320" idx="2"/>
+          <a:endCxn id="451" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3031350" y="7490779"/>
+          <a:ext cx="9658" cy="649968"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>191048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>682265</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>163082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="324" name="カギ線コネクタ 323"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="142" idx="2"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4455796" y="7414919"/>
+          <a:ext cx="2786952" cy="2790316"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -4627,16 +5311,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -4653,7 +5337,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
@@ -4664,294 +5348,264 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -4959,6 +5613,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4968,63 +5652,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.625" customWidth="1"/>
-    <col min="2" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="10" width="8.8984375" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" customWidth="1"/>
+    <col min="21" max="21" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="J38" t="s">
-        <v>10</v>
-      </c>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O16" s="17"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" t="s">
-        <v>11</v>
-      </c>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.45">
+      <c r="N21" s="17"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="33" ht="19.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="34" ht="19.2" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="61" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/アクティビティ図/アクティビティ図(全体処理).xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Kintai\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\AHKG\3.勤怠管理アプリ\05_内部仕様書\アクティビティ図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17076" windowHeight="10488" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17070" windowHeight="10485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="〇〇処理" sheetId="2" r:id="rId2"/>
+    <sheet name="全体処理" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">〇〇処理!$A$1:$Y$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">全体処理!$A$1:$Y$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -118,12 +118,70 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>以前選択された年月が再び選択された場合</t>
+    <rPh sb="0" eb="4">
+      <t>イゼンセンタク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フタタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新しい年月が選択された場合</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>値が正しく入力されていない、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしくは 未入力の場合</t>
+  </si>
+  <si>
+    <t>エラーが生じた場合</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +220,20 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -276,7 +348,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,14 +370,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -315,6 +381,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,8 +403,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,9 +439,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>279763</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:colOff>310403</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>218739</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -378,7 +456,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1095"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1106"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -393,7 +471,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6103620" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -554,15 +632,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>512782</xdr:colOff>
+      <xdr:colOff>508300</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>521298</xdr:colOff>
+      <xdr:colOff>516815</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>222324</xdr:rowOff>
+      <xdr:rowOff>188706</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -574,8 +652,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305723" y="2097741"/>
-          <a:ext cx="8516" cy="455407"/>
+          <a:off x="2951182" y="2106706"/>
+          <a:ext cx="8515" cy="424029"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -668,13 +746,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>134918</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>189808</xdr:rowOff>
+      <xdr:rowOff>181086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>368691</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>214704</xdr:rowOff>
+      <xdr:rowOff>193170</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -685,9 +763,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3282564" y="2704408"/>
-          <a:ext cx="2953527" cy="24896"/>
+        <a:xfrm>
+          <a:off x="3250153" y="2758439"/>
+          <a:ext cx="2923185" cy="12084"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -830,13 +908,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>226359</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>222324</xdr:rowOff>
+      <xdr:rowOff>188706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>134918</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>207084</xdr:rowOff>
+      <xdr:rowOff>173466</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -845,8 +923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="2553148"/>
-          <a:ext cx="589877" cy="450924"/>
+          <a:off x="2669241" y="2530735"/>
+          <a:ext cx="580912" cy="455407"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -995,16 +1073,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>174812</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>220616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>399613</xdr:colOff>
+      <xdr:rowOff>231822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623731</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52290</xdr:rowOff>
+      <xdr:rowOff>63496</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1013,8 +1091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7476565" y="5348428"/>
-          <a:ext cx="1771213" cy="297838"/>
+          <a:off x="4634753" y="5397734"/>
+          <a:ext cx="1793625" cy="302321"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,13 +1138,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>145675</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>136453</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:rowOff>147660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>174812</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>163318</xdr:rowOff>
+      <xdr:rowOff>163319</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1078,8 +1156,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3301251" y="5497347"/>
-          <a:ext cx="4175314" cy="26865"/>
+          <a:off x="3260910" y="5548895"/>
+          <a:ext cx="1373843" cy="15659"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1107,16 +1185,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>399613</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>623731</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>132332</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>576776</xdr:colOff>
+      <xdr:rowOff>147660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330247</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>136453</xdr:rowOff>
+      <xdr:rowOff>165951</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1127,9 +1205,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9247778" y="5493226"/>
-          <a:ext cx="849516" cy="4121"/>
+        <a:xfrm>
+          <a:off x="6428378" y="5548895"/>
+          <a:ext cx="378869" cy="18291"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1157,16 +1235,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>281222</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292428</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>52289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>187364</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>211568</xdr:rowOff>
+      <xdr:rowOff>97112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198571</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21068</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1175,8 +1253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11109242" y="5081489"/>
-          <a:ext cx="2588382" cy="616479"/>
+          <a:off x="7710722" y="5263024"/>
+          <a:ext cx="2640378" cy="629926"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1224,15 +1302,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>553723</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>94162</xdr:rowOff>
+      <xdr:colOff>526507</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>579121</xdr:colOff>
+      <xdr:colOff>612321</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>22496</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1241,8 +1319,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1658623" y="8095162"/>
-          <a:ext cx="2738118" cy="385534"/>
+          <a:off x="1642293" y="9212037"/>
+          <a:ext cx="2807242" cy="721178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,7 +1354,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勤怠申請のフォーム画面が作成される</a:t>
+            <a:t>選択した年月の勤怠申請のフォーム画面が作成される</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1336,15 +1414,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>555650</xdr:colOff>
+      <xdr:colOff>551168</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>183778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>557091</xdr:colOff>
+      <xdr:colOff>552609</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>43477</xdr:rowOff>
+      <xdr:rowOff>77095</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1356,8 +1434,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3029909" y="6710084"/>
-          <a:ext cx="1441" cy="325864"/>
+          <a:off x="2994050" y="6761631"/>
+          <a:ext cx="1441" cy="363964"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1448,13 +1526,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>566422</xdr:colOff>
+      <xdr:colOff>567025</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>22496</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>567025</xdr:colOff>
+      <xdr:colOff>569414</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>108107</xdr:rowOff>
     </xdr:to>
@@ -1467,9 +1545,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3027682" y="8480696"/>
-          <a:ext cx="603" cy="542811"/>
+        <a:xfrm flipH="1">
+          <a:off x="3043525" y="9933215"/>
+          <a:ext cx="2389" cy="448285"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1550,7 +1628,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>勤怠ステータスと勤怠時間、休憩時間を入力して更新する</a:t>
+            <a:t>選択した年月勤怠ステータスと勤怠時間、休憩時間を入力して更新する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1729,16 +1807,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>664076</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133046</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>519953</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1747,8 +1825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12159390" y="6305246"/>
-          <a:ext cx="530792" cy="458626"/>
+          <a:off x="8765929" y="6273869"/>
+          <a:ext cx="539436" cy="472073"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -1860,16 +1938,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>234294</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>211568</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>255838</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133046</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>245499</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>21068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250235</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166663</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1881,8 +1959,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12444223" y="5805544"/>
-          <a:ext cx="21544" cy="620726"/>
+          <a:off x="9030911" y="5892950"/>
+          <a:ext cx="4736" cy="380919"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1928,8 +2006,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14204984" y="2520093"/>
-          <a:ext cx="469285" cy="401138"/>
+          <a:off x="14252689" y="2582846"/>
+          <a:ext cx="469285" cy="407861"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -2150,72 +2228,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>522973</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>192220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257168</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>71427</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="テキスト ボックス 124"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13405255" y="14643326"/>
-          <a:ext cx="2423607" cy="578454"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>申請する月の日数分正しく入力されていた場合</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>280902</xdr:colOff>
+      <xdr:colOff>280901</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>150791</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>6275</xdr:rowOff>
     </xdr:to>
@@ -2226,8 +2246,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="280902" y="2893991"/>
-          <a:ext cx="2447058" cy="312684"/>
+          <a:off x="280901" y="2963467"/>
+          <a:ext cx="2890363" cy="326132"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2393,13 +2413,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
+      <xdr:colOff>516815</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>520349</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>207084</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>520608</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>132424</xdr:rowOff>
     </xdr:to>
@@ -2412,9 +2432,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2988057" y="2950284"/>
-          <a:ext cx="259" cy="382540"/>
+        <a:xfrm>
+          <a:off x="2959697" y="2986142"/>
+          <a:ext cx="3534" cy="429606"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2443,13 +2463,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>261771</xdr:colOff>
+      <xdr:colOff>261770</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>81376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>243083</xdr:colOff>
+      <xdr:colOff>369793</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>168873</xdr:rowOff>
     </xdr:to>
@@ -2460,8 +2480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3417347" y="2412200"/>
-          <a:ext cx="2706583" cy="320579"/>
+          <a:off x="3377005" y="2423405"/>
+          <a:ext cx="2797435" cy="322821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2506,16 +2526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>493434</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>170328</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269317</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>37652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>618564</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>93860</xdr:rowOff>
+      <xdr:rowOff>161096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2524,8 +2544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5011646" y="5100469"/>
-          <a:ext cx="1039529" cy="354285"/>
+          <a:off x="3384552" y="5203564"/>
+          <a:ext cx="1021600" cy="358767"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2959,8 +2979,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2789811" y="17094897"/>
-          <a:ext cx="441427" cy="411583"/>
+          <a:off x="2783407" y="17559461"/>
+          <a:ext cx="438866" cy="425030"/>
           <a:chOff x="3206262" y="9999785"/>
           <a:chExt cx="451338" cy="410307"/>
         </a:xfrm>
@@ -3181,33 +3201,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482474</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>45243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>568811</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>112507</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>135776</xdr:colOff>
+      <xdr:colOff>227217</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>139751</xdr:rowOff>
+      <xdr:rowOff>139752</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="308" name="カギ線コネクタ 307"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="293" idx="3"/>
+          <a:stCxn id="293" idx="1"/>
+          <a:endCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3020463" y="3127377"/>
-          <a:ext cx="242826" cy="954896"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm rot="10800000">
+          <a:off x="1580650" y="3563890"/>
+          <a:ext cx="1089449" cy="565156"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -942779"/>
-            <a:gd name="adj2" fmla="val 99909"/>
+            <a:gd name="adj1" fmla="val 126126"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3233,16 +3253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>479091</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>213200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>586447</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>271783</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>64202</xdr:rowOff>
+      <xdr:rowOff>13895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>369533</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3251,8 +3271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5666553" y="3413600"/>
-          <a:ext cx="787294" cy="308202"/>
+          <a:off x="1369959" y="3767866"/>
+          <a:ext cx="770103" cy="331253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3298,14 +3318,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>303294</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>575437</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>123092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>263768</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>535911</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9680</xdr:rowOff>
     </xdr:to>
@@ -3316,8 +3336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2091063" y="4237892"/>
-          <a:ext cx="640413" cy="343788"/>
+          <a:off x="3051937" y="4518199"/>
+          <a:ext cx="640831" cy="376445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3420,76 +3440,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38207</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>99207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>319904</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>162049</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="446" name="テキスト ボックス 445"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9533899" y="1470807"/>
-          <a:ext cx="2286343" cy="291442"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>バリでエーション</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>508989</xdr:colOff>
+      <xdr:colOff>508988</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>198018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>624508</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>32259</xdr:rowOff>
     </xdr:to>
@@ -3500,8 +3458,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="935709" y="7284618"/>
-          <a:ext cx="4184599" cy="291441"/>
+          <a:off x="934812" y="8187812"/>
+          <a:ext cx="4253511" cy="304888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3547,69 +3505,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>）にデフォルト値勤怠情報が作成される</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>417654</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>90040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14546</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>191048</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="テキスト ボックス 141"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6298501" y="7082511"/>
-          <a:ext cx="1891857" cy="334090"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>同じ年月選択された場合</a:t>
+            <a:t>）にデフォルト値が入った勤怠情報が作成される</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3815,7 +3711,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 7246209"/>
+            <a:gd name="adj1" fmla="val 2894410"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4113,15 +4009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>566422</xdr:colOff>
+      <xdr:colOff>569414</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>32259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>566749</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>94162</xdr:rowOff>
+      <xdr:colOff>618686</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4133,8 +4029,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3027682" y="7576059"/>
-          <a:ext cx="327" cy="519103"/>
+          <a:off x="3012296" y="8492700"/>
+          <a:ext cx="49272" cy="366352"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4162,16 +4058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>576776</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330247</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>139952</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>497058</xdr:colOff>
+      <xdr:rowOff>173570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>934087</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>124712</xdr:rowOff>
+      <xdr:rowOff>158330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4180,8 +4076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10063676" y="5169152"/>
-          <a:ext cx="590842" cy="441960"/>
+          <a:off x="6807247" y="5339482"/>
+          <a:ext cx="603840" cy="455407"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4221,16 +4117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>497058</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>934087</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>131929</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>281222</xdr:colOff>
+      <xdr:rowOff>165951</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>292428</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>132332</xdr:rowOff>
+      <xdr:rowOff>176752</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4241,9 +4137,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10654518" y="5389729"/>
-          <a:ext cx="454724" cy="403"/>
+        <a:xfrm>
+          <a:off x="7411087" y="5567186"/>
+          <a:ext cx="299635" cy="10801"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4271,16 +4167,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>186360</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399272</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52290</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200741</xdr:colOff>
+      <xdr:rowOff>63497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>632167</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>124712</xdr:rowOff>
+      <xdr:rowOff>158331</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4292,12 +4188,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="9341681" y="4666757"/>
-          <a:ext cx="72422" cy="2031440"/>
+          <a:off x="6272950" y="4958672"/>
+          <a:ext cx="94834" cy="1577601"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -439434"/>
+            <a:gd name="adj1" fmla="val -241053"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -4323,16 +4219,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>224602</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>105582</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157849</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202190</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>841407</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>193077</xdr:rowOff>
+      <xdr:rowOff>81018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4341,8 +4237,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8400414" y="6165723"/>
-          <a:ext cx="1950306" cy="320578"/>
+          <a:off x="5334484" y="6100729"/>
+          <a:ext cx="1983923" cy="322818"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4383,247 +4279,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>480508</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>137159</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="テキスト ボックス 199"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11347076"/>
-          <a:ext cx="2263588" cy="905883"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>値が正しく入力されていない、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>もしくは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>未入力の場合はバリエーション</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>で入力拒否される</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>936392</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>82741</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>453361</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>186338</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="テキスト ボックス 201"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7435163" y="14049112"/>
-          <a:ext cx="5863341" cy="560797"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>trycatch</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>で、エラーが生じた場合</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>メッセージ「正しく申請されていません」と表示され、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>処理が申請ボタンを押す前に戻る。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>582816</xdr:colOff>
       <xdr:row>58</xdr:row>
@@ -4675,31 +4330,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>68586</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>81579</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>221348</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>82741</xdr:rowOff>
+      <xdr:rowOff>78223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="290" name="カギ線コネクタ 289"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="202" idx="0"/>
-          <a:endCxn id="192" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5636226" y="9318504"/>
-          <a:ext cx="2287162" cy="7174054"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+          <a:off x="3065375" y="12186963"/>
+          <a:ext cx="3485248" cy="3248355"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100158"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -4724,29 +4378,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>528918</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>134540</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>159126</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>81931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>936392</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>149167</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="296" name="直線矢印コネクタ 295"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="123" idx="3"/>
-          <a:endCxn id="202" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5677861" y="14329511"/>
-          <a:ext cx="1757302" cy="14627"/>
+        <a:xfrm>
+          <a:off x="3274361" y="15602078"/>
+          <a:ext cx="3202640" cy="7716"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4777,13 +4428,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>269261</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>43477</xdr:rowOff>
+      <xdr:rowOff>77095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>163604</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>32144</xdr:rowOff>
+      <xdr:rowOff>65762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4792,8 +4443,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2743520" y="7035948"/>
-          <a:ext cx="575660" cy="454831"/>
+          <a:off x="2712143" y="7125595"/>
+          <a:ext cx="566696" cy="459314"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -4834,28 +4485,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>163604</xdr:colOff>
+      <xdr:colOff>165400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>24003</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>417654</xdr:colOff>
+      <xdr:rowOff>81399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>37811</xdr:rowOff>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="321" name="直線矢印コネクタ 320"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="320" idx="3"/>
-          <a:endCxn id="142" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3319180" y="7249556"/>
-          <a:ext cx="2979321" cy="13808"/>
+        <a:xfrm>
+          <a:off x="3280635" y="7365223"/>
+          <a:ext cx="2154218" cy="19453"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4884,13 +4532,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>557091</xdr:colOff>
+      <xdr:colOff>552609</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>32144</xdr:rowOff>
+      <xdr:rowOff>65762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>566749</xdr:colOff>
+      <xdr:colOff>618686</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>198018</xdr:rowOff>
     </xdr:to>
@@ -4904,8 +4552,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3031350" y="7490779"/>
-          <a:ext cx="9658" cy="649968"/>
+          <a:off x="2995491" y="7584909"/>
+          <a:ext cx="66077" cy="602903"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4934,13 +4582,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
+      <xdr:colOff>617221</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>191048</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>682265</xdr:colOff>
+      <xdr:rowOff>100855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>163082</xdr:rowOff>
     </xdr:to>
@@ -4948,14 +4596,13 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="324" name="カギ線コネクタ 323"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="142" idx="2"/>
           <a:endCxn id="48" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4455796" y="7414919"/>
-          <a:ext cx="2786952" cy="2790316"/>
+          <a:off x="3471174" y="8318314"/>
+          <a:ext cx="2886109" cy="1018839"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4979,6 +4626,65 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>410931</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>191845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>94130</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="ひし形 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2853813" y="15476669"/>
+          <a:ext cx="355552" cy="264458"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5311,23 +5017,23 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -5337,275 +5043,305 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -5613,36 +5349,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5652,34 +5358,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="10" width="8.8984375" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" customWidth="1"/>
-    <col min="21" max="21" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="10" width="8.875" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="21" max="21" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="O16" s="17"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="O16" s="7"/>
     </row>
-    <row r="21" spans="14:14" x14ac:dyDescent="0.45">
-      <c r="N21" s="17"/>
+    <row r="21" spans="14:14" x14ac:dyDescent="0.4">
+      <c r="N21" s="7"/>
     </row>
-    <row r="33" ht="19.2" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="34" ht="19.2" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="33" spans="3:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="3:10" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K59" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
